--- a/src/attributions/attributions_ig_traj_101.xlsx
+++ b/src/attributions/attributions_ig_traj_101.xlsx
@@ -1004,25 +1004,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.338219714777292</v>
+        <v>-0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0</v>
+        <v>0.3108430823484841</v>
       </c>
       <c r="C2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0.215279026913243</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0174617482943862</v>
+        <v>0.04196797237908838</v>
       </c>
       <c r="F2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0002757384403554823</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>-0</v>
@@ -1031,52 +1031,52 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.460935594070614</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-0</v>
+        <v>0.3788967844860385</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>-0.3869458032419404</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.1356922607753612</v>
+        <v>-0.0150000989646639</v>
       </c>
       <c r="O2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.01474467888859847</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.09964786739478264</v>
+        <v>-0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.1361622821586091</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>0.01362004364599871</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.03522455207046993</v>
+        <v>0.169290158519037</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.08887690860649132</v>
+        <v>-0</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
@@ -1085,25 +1085,25 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.02445917536719619</v>
+        <v>-0</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0</v>
+        <v>0.04679408994751928</v>
       </c>
       <c r="AD2" t="n">
         <v>-0</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>-7.271395222594975e-05</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.002041704545350886</v>
+        <v>0.01536586175959912</v>
       </c>
       <c r="AG2" t="n">
         <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.004850534997779827</v>
+        <v>-0</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
@@ -1112,52 +1112,52 @@
         <v>-0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.1646289480216811</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>0.06644593466299445</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>-0.1231780516873787</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.05973420973600838</v>
+        <v>-0.03115460533775904</v>
       </c>
       <c r="AP2" t="n">
         <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.04655115271417388</v>
+        <v>-0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS2" t="n">
         <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.510582890203051</v>
+        <v>-0</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0</v>
+        <v>0.6582304629374546</v>
       </c>
       <c r="AV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0</v>
+        <v>-0.1821602655752124</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.1499897429698918</v>
+        <v>0.3302382338368208</v>
       </c>
       <c r="AY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.197511363482555</v>
+        <v>0</v>
       </c>
       <c r="BA2" t="n">
         <v>-0</v>
@@ -1166,25 +1166,25 @@
         <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.08660116046592554</v>
+        <v>-0</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0</v>
+        <v>0.008840646143726627</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF2" t="n">
-        <v>0</v>
+        <v>-0.1087861787726551</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.007359565804895949</v>
+        <v>-0.06266042071522059</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0.04374380553294639</v>
+        <v>-0</v>
       </c>
       <c r="BJ2" t="n">
         <v>0</v>
@@ -1193,52 +1193,52 @@
         <v>0</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.1635874165581133</v>
+        <v>-0</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0</v>
+        <v>-0.06780809363976335</v>
       </c>
       <c r="BN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0</v>
+        <v>0.09302470027565145</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.1023008208155016</v>
+        <v>0.1818579037297978</v>
       </c>
       <c r="BQ2" t="n">
         <v>-0</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.005941980160495337</v>
+        <v>0</v>
       </c>
       <c r="BS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT2" t="n">
         <v>-0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.391615002487855</v>
+        <v>-0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>0.3343052278326771</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>0</v>
+        <v>-0.05499268012581732</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.05005733586754692</v>
+        <v>0.1727270952047446</v>
       </c>
       <c r="BZ2" t="n">
         <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.0993335918927182</v>
+        <v>0</v>
       </c>
       <c r="CB2" t="n">
         <v>-0</v>
@@ -1247,25 +1247,25 @@
         <v>-0</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.2000691887174549</v>
+        <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0</v>
+        <v>-0.1366080808194204</v>
       </c>
       <c r="CF2" t="n">
         <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0</v>
+        <v>0.1093618989008442</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.002569412270816163</v>
+        <v>-0.07063789846302188</v>
       </c>
       <c r="CI2" t="n">
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.03163317970360096</v>
+        <v>-0</v>
       </c>
       <c r="CK2" t="n">
         <v>0</v>
@@ -1274,79 +1274,79 @@
         <v>-0</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.06689872110340661</v>
+        <v>0</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0</v>
+        <v>-0.01396565041065752</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0</v>
+        <v>-0.07883331400896461</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.1782202624876415</v>
+        <v>-0.1804675003963667</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.06727361897425356</v>
+        <v>0</v>
       </c>
       <c r="CT2" t="n">
         <v>-0</v>
       </c>
       <c r="CU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.1831486951537601</v>
+        <v>0</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0</v>
+        <v>-0.1458073311854229</v>
       </c>
       <c r="CX2" t="n">
         <v>-0</v>
       </c>
       <c r="CY2" t="n">
-        <v>0</v>
+        <v>0.1343660873926265</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.04971367775912758</v>
+        <v>-0.05318477007954928</v>
       </c>
       <c r="DA2" t="n">
         <v>-0</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.01198146285639526</v>
+        <v>0</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD2" t="n">
         <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.09084886002127483</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>-0.1137320396913071</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0</v>
+        <v>0.07563938390692801</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.09573442768596355</v>
+        <v>-0.13111291396337</v>
       </c>
       <c r="DJ2" t="n">
         <v>-0</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.009006528481154442</v>
+        <v>-0</v>
       </c>
       <c r="DL2" t="n">
         <v>0</v>
@@ -1355,25 +1355,25 @@
         <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.1033251481138468</v>
+        <v>-0</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>-0.05240173340726712</v>
       </c>
       <c r="DP2" t="n">
         <v>0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0</v>
+        <v>-0.04155841114477513</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.01382821344223018</v>
+        <v>-0.05719448606205347</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.1455626887178496</v>
+        <v>0</v>
       </c>
       <c r="DU2" t="n">
         <v>0</v>
@@ -1382,25 +1382,25 @@
         <v>0</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.02446703896182932</v>
+        <v>-0</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0</v>
+        <v>0.06927416601096098</v>
       </c>
       <c r="DY2" t="n">
         <v>0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0</v>
+        <v>0.01033409817111543</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.1360516141526427</v>
+        <v>-0.02943521281237161</v>
       </c>
       <c r="EB2" t="n">
         <v>0</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.01939074510107231</v>
+        <v>0</v>
       </c>
       <c r="ED2" t="n">
         <v>-0</v>
@@ -1409,133 +1409,133 @@
         <v>-0</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.2246265338682004</v>
+        <v>0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0</v>
+        <v>-0.1615718747876243</v>
       </c>
       <c r="EH2" t="n">
         <v>0</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0</v>
+        <v>0.1564429457867083</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.02763401329346138</v>
+        <v>0.1235387854208232</v>
       </c>
       <c r="EK2" t="n">
         <v>0</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.07683044255213654</v>
+        <v>-0</v>
       </c>
       <c r="EM2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN2" t="n">
         <v>-0</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.003719786387333206</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0</v>
+        <v>-0.1333499605723506</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>0.1690870356275521</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.1673224053492829</v>
+        <v>-0.1569037627179171</v>
       </c>
       <c r="ET2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.08818614838611667</v>
+        <v>-0</v>
       </c>
       <c r="EV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW2" t="n">
         <v>-0</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.2102668617678451</v>
+        <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>0</v>
+        <v>-0.1600689495630654</v>
       </c>
       <c r="EZ2" t="n">
         <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0</v>
+        <v>0.1194576770790843</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.01964156854878012</v>
+        <v>-0.07435367569592584</v>
       </c>
       <c r="FC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.008031933510834947</v>
+        <v>-0</v>
       </c>
       <c r="FE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF2" t="n">
         <v>-0</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.1767589805003622</v>
+        <v>0</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0</v>
+        <v>-0.01971502394635141</v>
       </c>
       <c r="FI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0</v>
+        <v>-0.04891549222302669</v>
       </c>
       <c r="FK2" t="n">
-        <v>-0.1068000738333399</v>
+        <v>-0.02429698130576186</v>
       </c>
       <c r="FL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM2" t="n">
-        <v>-0.07210343529497125</v>
+        <v>-0</v>
       </c>
       <c r="FN2" t="n">
         <v>0</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0.07427912982071115</v>
+        <v>0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0</v>
+        <v>0.01626106828758994</v>
       </c>
       <c r="FR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS2" t="n">
-        <v>-0</v>
+        <v>0.1064610122259297</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.004714989055168436</v>
+        <v>-0.211432799785417</v>
       </c>
       <c r="FU2" t="n">
         <v>-0</v>
       </c>
       <c r="FV2" t="n">
-        <v>-0.06310076066519267</v>
+        <v>-0</v>
       </c>
       <c r="FW2" t="n">
         <v>0</v>
@@ -1544,54 +1544,54 @@
         <v>0</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.005340412960201969</v>
+        <v>-0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0</v>
+        <v>-0.0551922460020129</v>
       </c>
       <c r="GA2" t="n">
         <v>-0</v>
       </c>
       <c r="GB2" t="n">
-        <v>0</v>
+        <v>-0.05275749035174134</v>
       </c>
       <c r="GC2" t="n">
         <v>0</v>
       </c>
       <c r="GD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE2" t="n">
-        <v>-0.02441445270732853</v>
+        <v>-0</v>
       </c>
       <c r="GF2" t="n">
         <v>-0</v>
       </c>
       <c r="GG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.366675064609903</v>
+        <v>-0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0.9045425121380398</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3223539606292875</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
         <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.06058747775607348</v>
+        <v>0.1648810128891083</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.6318573321380593</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.3398065205369679</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>-0</v>
+        <v>-0.6889828287296895</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4420485057524178</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
         <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1981401006450516</v>
+        <v>0.09659910153713192</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.761240692770956</v>
       </c>
       <c r="P3" t="n">
         <v>-0</v>
@@ -1624,28 +1624,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.1327808045369</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>-0.2455069697333724</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1377535794057727</v>
+        <v>-0</v>
       </c>
       <c r="V3" t="n">
         <v>-0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.32839629419459</v>
+        <v>0.1674467064713038</v>
       </c>
       <c r="X3" t="n">
-        <v>-0</v>
+        <v>0.08926734067128778</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
@@ -1654,106 +1654,106 @@
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.007609732974629986</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>0.07102624723401964</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.0333733108473098</v>
+        <v>-0</v>
       </c>
       <c r="AE3" t="n">
         <v>-0</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.02544916342829878</v>
+        <v>-0.03424110197480633</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>-0.06028947335712816</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI3" t="n">
         <v>-0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0.1499370085045123</v>
+        <v>-0</v>
       </c>
       <c r="AL3" t="n">
-        <v>-0</v>
+        <v>-0.2215142778445382</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.112016737439632</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02042661147216141</v>
+        <v>-0.3078579266745434</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>0.4084014603163165</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT3" t="n">
-        <v>-0.3438359887495138</v>
+        <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>-0</v>
+        <v>-1.188664555694396</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.3534301804752554</v>
+        <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.06726468718639667</v>
+        <v>0.3326379815659699</v>
       </c>
       <c r="AY3" t="n">
-        <v>-0</v>
+        <v>1.084221184091953</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB3" t="n">
         <v>-0</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0.08227105757431169</v>
+        <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>-0.4061950358769124</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.1199680713735984</v>
+        <v>-0</v>
       </c>
       <c r="BF3" t="n">
         <v>-0</v>
       </c>
       <c r="BG3" t="n">
-        <v>-0.1199281273113814</v>
+        <v>0.07421226479741944</v>
       </c>
       <c r="BH3" t="n">
-        <v>0</v>
+        <v>0.1226216713878497</v>
       </c>
       <c r="BI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ3" t="n">
         <v>-0</v>
@@ -1762,25 +1762,25 @@
         <v>0</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.1004623062904666</v>
+        <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>-0</v>
+        <v>-0.1825528783058658</v>
       </c>
       <c r="BN3" t="n">
-        <v>-0.1513894695686555</v>
+        <v>-0</v>
       </c>
       <c r="BO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP3" t="n">
-        <v>-0.2355596708804</v>
+        <v>-0.06564406692055859</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0</v>
+        <v>0.1052598541485273</v>
       </c>
       <c r="BR3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS3" t="n">
         <v>-0</v>
@@ -1789,25 +1789,25 @@
         <v>-0</v>
       </c>
       <c r="BU3" t="n">
-        <v>-0.3481453586544815</v>
+        <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>-0</v>
+        <v>-0.6565397770243264</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.2117941141556358</v>
+        <v>-0</v>
       </c>
       <c r="BX3" t="n">
         <v>-0</v>
       </c>
       <c r="BY3" t="n">
-        <v>-0.08888528605206854</v>
+        <v>0.2065043550675515</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0</v>
+        <v>0.5632861499228645</v>
       </c>
       <c r="CA3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB3" t="n">
         <v>0</v>
@@ -1816,52 +1816,52 @@
         <v>-0</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.148666678193507</v>
+        <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>-0</v>
+        <v>0.3254296553724417</v>
       </c>
       <c r="CF3" t="n">
-        <v>-0.1184659329162642</v>
+        <v>-0</v>
       </c>
       <c r="CG3" t="n">
         <v>0</v>
       </c>
       <c r="CH3" t="n">
-        <v>-0.02439621280367479</v>
+        <v>0.04616011975819771</v>
       </c>
       <c r="CI3" t="n">
-        <v>-0</v>
+        <v>-0.2269095055632122</v>
       </c>
       <c r="CJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK3" t="n">
         <v>-0</v>
       </c>
       <c r="CL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.008165903608213409</v>
+        <v>-0</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>0.1717409874268297</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.01670166624717331</v>
+        <v>0</v>
       </c>
       <c r="CP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.08391725206878659</v>
+        <v>0.009807746280243213</v>
       </c>
       <c r="CR3" t="n">
-        <v>-0</v>
+        <v>0.02182886124040807</v>
       </c>
       <c r="CS3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT3" t="n">
         <v>0</v>
@@ -1870,22 +1870,22 @@
         <v>0</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.1280415108982915</v>
+        <v>0</v>
       </c>
       <c r="CW3" t="n">
-        <v>0</v>
+        <v>0.3081603552069221</v>
       </c>
       <c r="CX3" t="n">
-        <v>-0.1133100585591847</v>
+        <v>0</v>
       </c>
       <c r="CY3" t="n">
         <v>-0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.06860794374243905</v>
+        <v>0.01719092852330497</v>
       </c>
       <c r="DA3" t="n">
-        <v>0</v>
+        <v>-0.2636827733883258</v>
       </c>
       <c r="DB3" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="DD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE3" t="n">
-        <v>-0.05135633472657097</v>
+        <v>-0</v>
       </c>
       <c r="DF3" t="n">
-        <v>-0</v>
+        <v>0.1743738839238605</v>
       </c>
       <c r="DG3" t="n">
-        <v>-0.007860389746509544</v>
+        <v>0</v>
       </c>
       <c r="DH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.05300893376638628</v>
+        <v>-0.4081392467164909</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0</v>
+        <v>0.003652836732821756</v>
       </c>
       <c r="DK3" t="n">
         <v>-0</v>
@@ -1921,25 +1921,25 @@
         <v>-0</v>
       </c>
       <c r="DM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.03653074360434549</v>
+        <v>-0</v>
       </c>
       <c r="DO3" t="n">
-        <v>-0</v>
+        <v>0.1159355303325251</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.08109265084854173</v>
+        <v>-0</v>
       </c>
       <c r="DQ3" t="n">
         <v>0</v>
       </c>
       <c r="DR3" t="n">
-        <v>-0.1028021497763369</v>
+        <v>0.03783337820061265</v>
       </c>
       <c r="DS3" t="n">
-        <v>0</v>
+        <v>-0.03552949308003384</v>
       </c>
       <c r="DT3" t="n">
         <v>-0</v>
@@ -1948,106 +1948,106 @@
         <v>-0</v>
       </c>
       <c r="DV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.06915440870279808</v>
+        <v>0</v>
       </c>
       <c r="DX3" t="n">
-        <v>0</v>
+        <v>-0.19969548699952</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.03674198778564853</v>
+        <v>-0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA3" t="n">
-        <v>-0.150260784060462</v>
+        <v>0.191595629960169</v>
       </c>
       <c r="EB3" t="n">
-        <v>-0</v>
+        <v>-0.04199011987406678</v>
       </c>
       <c r="EC3" t="n">
         <v>-0</v>
       </c>
       <c r="ED3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.2011848789671312</v>
+        <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>-0</v>
+        <v>0.2610369783493285</v>
       </c>
       <c r="EH3" t="n">
-        <v>-0.1660455128833955</v>
+        <v>-0</v>
       </c>
       <c r="EI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>-0.05287718722965447</v>
+        <v>-0.0816241501914651</v>
       </c>
       <c r="EK3" t="n">
-        <v>-0</v>
+        <v>-0.2019225802046823</v>
       </c>
       <c r="EL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN3" t="n">
         <v>0</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.03286388648858626</v>
+        <v>-0</v>
       </c>
       <c r="EP3" t="n">
-        <v>-0</v>
+        <v>0.1356068046941536</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-0.07749307798313156</v>
+        <v>-0</v>
       </c>
       <c r="ER3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES3" t="n">
-        <v>-0.007877280271063828</v>
+        <v>0.001723912175921599</v>
       </c>
       <c r="ET3" t="n">
-        <v>0</v>
+        <v>-0.06001921208959209</v>
       </c>
       <c r="EU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV3" t="n">
         <v>-0</v>
       </c>
       <c r="EW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.1478453007429057</v>
+        <v>-0</v>
       </c>
       <c r="EY3" t="n">
-        <v>-0</v>
+        <v>0.2994629731993624</v>
       </c>
       <c r="EZ3" t="n">
-        <v>-0.1069044588754232</v>
+        <v>-0</v>
       </c>
       <c r="FA3" t="n">
         <v>0</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.04091789066387022</v>
+        <v>0.003878327842907847</v>
       </c>
       <c r="FC3" t="n">
-        <v>-0</v>
+        <v>-0.2320757911727716</v>
       </c>
       <c r="FD3" t="n">
         <v>0</v>
@@ -2056,88 +2056,88 @@
         <v>-0</v>
       </c>
       <c r="FF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.2117905883251849</v>
+        <v>-0</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>0.1291452066174813</v>
       </c>
       <c r="FI3" t="n">
-        <v>-0.1121254718616005</v>
+        <v>0</v>
       </c>
       <c r="FJ3" t="n">
         <v>0</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.1152559424697462</v>
+        <v>0.1435520906624544</v>
       </c>
       <c r="FL3" t="n">
-        <v>-0</v>
+        <v>-0.3925463397648482</v>
       </c>
       <c r="FM3" t="n">
         <v>0</v>
       </c>
       <c r="FN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO3" t="n">
         <v>-0</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.08632681631271522</v>
+        <v>-0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>-0</v>
+        <v>0.2618408833130081</v>
       </c>
       <c r="FR3" t="n">
-        <v>-0.01996677760511528</v>
+        <v>0</v>
       </c>
       <c r="FS3" t="n">
         <v>0</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.1326000538803544</v>
+        <v>-0.05611767305022519</v>
       </c>
       <c r="FU3" t="n">
-        <v>-0</v>
+        <v>-0.02958539890413955</v>
       </c>
       <c r="FV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX3" t="n">
         <v>0</v>
       </c>
       <c r="FY3" t="n">
-        <v>-0.1105434585631031</v>
+        <v>0</v>
       </c>
       <c r="FZ3" t="n">
-        <v>-0</v>
+        <v>0.08840376630044949</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.1316643541897939</v>
+        <v>-0</v>
       </c>
       <c r="GB3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GC3" t="n">
         <v>-0</v>
       </c>
       <c r="GD3" t="n">
-        <v>0</v>
+        <v>0.2849165325931532</v>
       </c>
       <c r="GE3" t="n">
         <v>0</v>
       </c>
       <c r="GF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2145,100 +2145,100 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>-0</v>
+        <v>0.3866345650987164</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2736883153901287</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03363899125621308</v>
+        <v>-0.0652196549500524</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0.1852380084651767</v>
       </c>
       <c r="G4" t="n">
         <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1015853319939849</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.3589012147112821</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3502510135144692</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1601150283565431</v>
+        <v>-0.06311468071868366</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-0.3651221592817521</v>
       </c>
       <c r="P4" t="n">
         <v>-0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.1909528895553886</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.1094580176934663</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01782450883639954</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.06747051597936266</v>
+        <v>-0.07493545523177346</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>0.04537530539723772</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.03847105826269021</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0</v>
+        <v>0.02680376375963907</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.01166799682028318</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.01854126342237274</v>
+        <v>0.01825073112775779</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>0.004488947494421796</v>
       </c>
       <c r="AH4" t="n">
         <v>-0</v>
@@ -2247,79 +2247,79 @@
         <v>-0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.02294194614360427</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>0.09532539838076318</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.09637149997566466</v>
+        <v>-0</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.09389710153471349</v>
+        <v>0.00415580200122351</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>-0.1346001625284309</v>
       </c>
       <c r="AQ4" t="n">
         <v>-0</v>
       </c>
       <c r="AR4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.02347528620598111</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0</v>
+        <v>0.5030289018818075</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.2874504599375751</v>
+        <v>-0</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.03746270545565489</v>
+        <v>-0.1315890198888514</v>
       </c>
       <c r="AY4" t="n">
-        <v>-0</v>
+        <v>-0.3211154406559409</v>
       </c>
       <c r="AZ4" t="n">
         <v>0</v>
       </c>
       <c r="BA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB4" t="n">
-        <v>-0.2052216559251581</v>
+        <v>0</v>
       </c>
       <c r="BC4" t="n">
         <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>0</v>
+        <v>0.1325088011753167</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.1438124150717959</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
         <v>0</v>
       </c>
       <c r="BG4" t="n">
-        <v>-0.02162083459188339</v>
+        <v>-0.09895809076854709</v>
       </c>
       <c r="BH4" t="n">
-        <v>0</v>
+        <v>-0.06719795290494708</v>
       </c>
       <c r="BI4" t="n">
         <v>-0</v>
@@ -2328,106 +2328,106 @@
         <v>0</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.02030110051590447</v>
+        <v>0</v>
       </c>
       <c r="BL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0</v>
+        <v>0.1272550426278233</v>
       </c>
       <c r="BN4" t="n">
-        <v>-0.1093653494911429</v>
+        <v>0</v>
       </c>
       <c r="BO4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP4" t="n">
-        <v>-0.09573693194893422</v>
+        <v>0.001543428793494194</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0</v>
+        <v>0.02834197504386468</v>
       </c>
       <c r="BR4" t="n">
         <v>-0</v>
       </c>
       <c r="BS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.09622086231075286</v>
+        <v>-0</v>
       </c>
       <c r="BU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0</v>
+        <v>0.2521749399794315</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.2042207580577839</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY4" t="n">
-        <v>-0.01756711761073003</v>
+        <v>-0.09463853581078283</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0</v>
+        <v>-0.1104589849583093</v>
       </c>
       <c r="CA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC4" t="n">
-        <v>-0.1820051416442119</v>
+        <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE4" t="n">
-        <v>-0</v>
+        <v>-0.1334336215203771</v>
       </c>
       <c r="CF4" t="n">
-        <v>-0.08968463660520844</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.05957509827409777</v>
+        <v>-0.02750903240830612</v>
       </c>
       <c r="CI4" t="n">
-        <v>0</v>
+        <v>0.1130399748392108</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.05653319733902717</v>
+        <v>0</v>
       </c>
       <c r="CM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>-0</v>
+        <v>-0.009208760784757512</v>
       </c>
       <c r="CO4" t="n">
-        <v>-0.01964627981673167</v>
+        <v>-0</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.0221863084040236</v>
+        <v>0.03142847188632505</v>
       </c>
       <c r="CR4" t="n">
-        <v>0</v>
+        <v>-0.02608865444638875</v>
       </c>
       <c r="CS4" t="n">
         <v>-0</v>
@@ -2436,52 +2436,52 @@
         <v>-0</v>
       </c>
       <c r="CU4" t="n">
-        <v>-0.06853610246986833</v>
+        <v>-0</v>
       </c>
       <c r="CV4" t="n">
         <v>-0</v>
       </c>
       <c r="CW4" t="n">
-        <v>-0</v>
+        <v>-0.1125354257182475</v>
       </c>
       <c r="CX4" t="n">
-        <v>-0.08532283659145187</v>
+        <v>-0</v>
       </c>
       <c r="CY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>-0.01601539258181277</v>
+        <v>-0.01881686222551609</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0</v>
+        <v>0.1285816063493219</v>
       </c>
       <c r="DB4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC4" t="n">
         <v>-0</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.04383538559335596</v>
+        <v>-0</v>
       </c>
       <c r="DE4" t="n">
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>-0</v>
+        <v>-0.110943632860503</v>
       </c>
       <c r="DG4" t="n">
-        <v>-0.1089958237431447</v>
+        <v>0</v>
       </c>
       <c r="DH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.1796929479097811</v>
+        <v>0.05924378836863835</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0</v>
+        <v>-0.0781327605217683</v>
       </c>
       <c r="DK4" t="n">
         <v>0</v>
@@ -2490,223 +2490,223 @@
         <v>0</v>
       </c>
       <c r="DM4" t="n">
-        <v>-0.05393901127052417</v>
+        <v>0</v>
       </c>
       <c r="DN4" t="n">
         <v>-0</v>
       </c>
       <c r="DO4" t="n">
-        <v>-0</v>
+        <v>-0.02089521938103137</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.01068358917141911</v>
+        <v>0</v>
       </c>
       <c r="DQ4" t="n">
         <v>-0</v>
       </c>
       <c r="DR4" t="n">
-        <v>-0.1133260866766749</v>
+        <v>0.004531732174614046</v>
       </c>
       <c r="DS4" t="n">
-        <v>0</v>
+        <v>-0.01960440075622137</v>
       </c>
       <c r="DT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV4" t="n">
-        <v>-0.1482802562326839</v>
+        <v>0</v>
       </c>
       <c r="DW4" t="n">
         <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>0</v>
+        <v>0.07880764562008102</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.09310036107023048</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.002957652280295217</v>
+        <v>-0.03454565964938335</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0</v>
+        <v>-0.07168398243722526</v>
       </c>
       <c r="EC4" t="n">
         <v>-0</v>
       </c>
       <c r="ED4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.004667025591265674</v>
+        <v>-0</v>
       </c>
       <c r="EF4" t="n">
         <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>-0.0959036161817763</v>
       </c>
       <c r="EH4" t="n">
-        <v>-0.07543866196564135</v>
+        <v>0</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ4" t="n">
-        <v>-0.1824495826234713</v>
+        <v>0.02756057177449348</v>
       </c>
       <c r="EK4" t="n">
-        <v>0</v>
+        <v>0.1179096359739856</v>
       </c>
       <c r="EL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM4" t="n">
         <v>-0</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.034302102104902</v>
+        <v>-0</v>
       </c>
       <c r="EO4" t="n">
         <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>-0</v>
+        <v>-0.05661271075962738</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.07046594295281117</v>
+        <v>0</v>
       </c>
       <c r="ER4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.06215835588772997</v>
+        <v>-0.03867075363098797</v>
       </c>
       <c r="ET4" t="n">
-        <v>0</v>
+        <v>0.07324900669467149</v>
       </c>
       <c r="EU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV4" t="n">
         <v>0</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.1739139827048599</v>
+        <v>-0</v>
       </c>
       <c r="EX4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>-0.1132900553736543</v>
       </c>
       <c r="EZ4" t="n">
-        <v>-0.09352683785143434</v>
+        <v>0</v>
       </c>
       <c r="FA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.03547270318321864</v>
+        <v>-0.02133329054558526</v>
       </c>
       <c r="FC4" t="n">
-        <v>0</v>
+        <v>0.1171610192165286</v>
       </c>
       <c r="FD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF4" t="n">
-        <v>0.07026433119398387</v>
+        <v>0</v>
       </c>
       <c r="FG4" t="n">
         <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>0</v>
+        <v>-0.0418726762675006</v>
       </c>
       <c r="FI4" t="n">
-        <v>-0.1229699130934134</v>
+        <v>-0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.0942630904811254</v>
+        <v>-0.04702444470215472</v>
       </c>
       <c r="FL4" t="n">
-        <v>-0</v>
+        <v>0.105048327923058</v>
       </c>
       <c r="FM4" t="n">
         <v>0</v>
       </c>
       <c r="FN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.07754477612798552</v>
+        <v>0</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>-0</v>
+        <v>-0.01636650926019255</v>
       </c>
       <c r="FR4" t="n">
-        <v>-0.01744876231161515</v>
+        <v>-0</v>
       </c>
       <c r="FS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.01270853115654838</v>
+        <v>0.0201023470847986</v>
       </c>
       <c r="FU4" t="n">
-        <v>0</v>
+        <v>0.05561454098591653</v>
       </c>
       <c r="FV4" t="n">
         <v>-0</v>
       </c>
       <c r="FW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.1300187504506853</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
         <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>-0</v>
+        <v>-0.01046553829503089</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.07471989952603704</v>
+        <v>-0</v>
       </c>
       <c r="GB4" t="n">
         <v>-0</v>
       </c>
       <c r="GC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD4" t="n">
-        <v>0</v>
+        <v>-0.0923712354584319</v>
       </c>
       <c r="GE4" t="n">
         <v>-0</v>
       </c>
       <c r="GF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.1217164437055913</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
@@ -2714,10 +2714,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -2741,10 +2741,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -2768,10 +2768,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -2795,10 +2795,10 @@
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
@@ -2822,10 +2822,10 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
         <v>0</v>
@@ -2849,10 +2849,10 @@
         <v>0</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW5" t="n">
         <v>0</v>
@@ -2876,10 +2876,10 @@
         <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
         <v>0</v>
@@ -2903,10 +2903,10 @@
         <v>0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO5" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
         <v>0</v>
@@ -2957,10 +2957,10 @@
         <v>0</v>
       </c>
       <c r="CE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG5" t="n">
         <v>0</v>
@@ -2984,10 +2984,10 @@
         <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP5" t="n">
         <v>0</v>
@@ -3038,10 +3038,10 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
@@ -3065,10 +3065,10 @@
         <v>0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ5" t="n">
         <v>0</v>
@@ -3119,10 +3119,10 @@
         <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI5" t="n">
         <v>0</v>
@@ -3146,10 +3146,10 @@
         <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER5" t="n">
         <v>0</v>
@@ -3173,10 +3173,10 @@
         <v>0</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA5" t="n">
         <v>0</v>
@@ -3200,10 +3200,10 @@
         <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ5" t="n">
         <v>0</v>
@@ -3227,10 +3227,10 @@
         <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS5" t="n">
         <v>0</v>
@@ -3280,28 +3280,28 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>-0</v>
+        <v>0.1171522203616748</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1679863100888644</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.01488602850211402</v>
+        <v>-0.07769537784154766</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02445606496524704</v>
+        <v>-0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-0.01403027759955246</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -3310,79 +3310,79 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>0.1072912980289972</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1795978527711463</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.02799465914200193</v>
+        <v>-0.07166815446829157</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.04557907498748307</v>
+        <v>-0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>-0.06128325757120401</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.103369047296544</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.02065488482361246</v>
+        <v>-0</v>
       </c>
       <c r="V6" t="n">
         <v>-0</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.02149853097142766</v>
+        <v>0.05071431191825285</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.05383944880987881</v>
+        <v>-0</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>-0.0298550182338729</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
         <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>0.03223041025871016</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.01474104797900672</v>
+        <v>-0</v>
       </c>
       <c r="AE6" t="n">
         <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.00218882877644713</v>
+        <v>-0.02019244749160701</v>
       </c>
       <c r="AG6" t="n">
         <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.004699967441873032</v>
+        <v>-0</v>
       </c>
       <c r="AI6" t="n">
-        <v>-0</v>
+        <v>-0.007086456557502764</v>
       </c>
       <c r="AJ6" t="n">
         <v>-0</v>
@@ -3391,187 +3391,187 @@
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0</v>
+        <v>0.04375141117226868</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.05943406479900529</v>
+        <v>-0</v>
       </c>
       <c r="AN6" t="n">
         <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>-0.02816240358081323</v>
+        <v>-0.02245480314480911</v>
       </c>
       <c r="AP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.02176282054177837</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
-        <v>-0</v>
+        <v>-0.01894393067596725</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0</v>
+        <v>0.2891945937456054</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.08139382967473943</v>
+        <v>-0</v>
       </c>
       <c r="AW6" t="n">
         <v>-0</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.07734163457051678</v>
+        <v>0.05339141869602029</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.03217675997075359</v>
+        <v>-0</v>
       </c>
       <c r="BA6" t="n">
-        <v>-0</v>
+        <v>0.06169996504380463</v>
       </c>
       <c r="BB6" t="n">
         <v>0</v>
       </c>
       <c r="BC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>-0.04296874510369437</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.1052194680574347</v>
+        <v>0</v>
       </c>
       <c r="BF6" t="n">
         <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>-0.06868692896707593</v>
+        <v>-0.1103950561165175</v>
       </c>
       <c r="BH6" t="n">
         <v>0</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.02571175561826286</v>
+        <v>-0</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0</v>
+        <v>-0.05456408347896312</v>
       </c>
       <c r="BK6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL6" t="n">
         <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0</v>
+        <v>0.09259187529615248</v>
       </c>
       <c r="BN6" t="n">
-        <v>-0.06351526163616346</v>
+        <v>-0</v>
       </c>
       <c r="BO6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP6" t="n">
-        <v>-0.01207653019300431</v>
+        <v>0.0350001516013413</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR6" t="n">
-        <v>0.001616693384010669</v>
+        <v>-0</v>
       </c>
       <c r="BS6" t="n">
-        <v>-0</v>
+        <v>0.01513760181454501</v>
       </c>
       <c r="BT6" t="n">
         <v>-0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>0.1640321186132099</v>
       </c>
       <c r="BW6" t="n">
-        <v>0.08631429242111448</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY6" t="n">
-        <v>-0.04217522649204716</v>
+        <v>0.01621721108184061</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA6" t="n">
-        <v>0.04150940264199707</v>
+        <v>-0</v>
       </c>
       <c r="CB6" t="n">
-        <v>-0</v>
+        <v>0.04086317313890904</v>
       </c>
       <c r="CC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE6" t="n">
-        <v>-0</v>
+        <v>-0.04005039453736143</v>
       </c>
       <c r="CF6" t="n">
-        <v>-0.05047378131684959</v>
+        <v>-0</v>
       </c>
       <c r="CG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH6" t="n">
-        <v>-0.001982552090835311</v>
+        <v>0.02312623059918093</v>
       </c>
       <c r="CI6" t="n">
         <v>-0</v>
       </c>
       <c r="CJ6" t="n">
-        <v>-0.02666916862931342</v>
+        <v>-0</v>
       </c>
       <c r="CK6" t="n">
-        <v>0</v>
+        <v>-0.004960154156225826</v>
       </c>
       <c r="CL6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>-0</v>
+        <v>-0.03013559665652524</v>
       </c>
       <c r="CO6" t="n">
-        <v>0.002096545479319363</v>
+        <v>-0</v>
       </c>
       <c r="CP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.0293185280630539</v>
+        <v>-0.06824728127482101</v>
       </c>
       <c r="CR6" t="n">
         <v>-0</v>
       </c>
       <c r="CS6" t="n">
-        <v>-0.022269817788908</v>
+        <v>0</v>
       </c>
       <c r="CT6" t="n">
-        <v>-0</v>
+        <v>-0.008255915511666868</v>
       </c>
       <c r="CU6" t="n">
         <v>0</v>
@@ -3580,79 +3580,79 @@
         <v>-0</v>
       </c>
       <c r="CW6" t="n">
-        <v>-0</v>
+        <v>-0.02617137099424812</v>
       </c>
       <c r="CX6" t="n">
-        <v>-0.06214392291442671</v>
+        <v>-0</v>
       </c>
       <c r="CY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.02432594005981385</v>
+        <v>0.008103028067095468</v>
       </c>
       <c r="DA6" t="n">
         <v>0</v>
       </c>
       <c r="DB6" t="n">
-        <v>-0.01831062373181378</v>
+        <v>0</v>
       </c>
       <c r="DC6" t="n">
-        <v>-0</v>
+        <v>-0.004783080777824972</v>
       </c>
       <c r="DD6" t="n">
         <v>0</v>
       </c>
       <c r="DE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>-0.1341008557642005</v>
       </c>
       <c r="DG6" t="n">
-        <v>0.003315679629315379</v>
+        <v>0</v>
       </c>
       <c r="DH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI6" t="n">
-        <v>-0.02769108585675811</v>
+        <v>0.004980297071295224</v>
       </c>
       <c r="DJ6" t="n">
         <v>0</v>
       </c>
       <c r="DK6" t="n">
-        <v>0.007176155008696149</v>
+        <v>0</v>
       </c>
       <c r="DL6" t="n">
-        <v>0</v>
+        <v>-0.03140617096667465</v>
       </c>
       <c r="DM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN6" t="n">
         <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>-0</v>
+        <v>0.01030125214196313</v>
       </c>
       <c r="DP6" t="n">
-        <v>0.01552780954774815</v>
+        <v>-0</v>
       </c>
       <c r="DQ6" t="n">
         <v>0</v>
       </c>
       <c r="DR6" t="n">
-        <v>-0.05854898203972735</v>
+        <v>0.00772217145140657</v>
       </c>
       <c r="DS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT6" t="n">
-        <v>-0.02289984586701654</v>
+        <v>0</v>
       </c>
       <c r="DU6" t="n">
-        <v>0</v>
+        <v>0.00397111530790464</v>
       </c>
       <c r="DV6" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>0</v>
       </c>
       <c r="DX6" t="n">
-        <v>-0</v>
+        <v>0.02986009251632469</v>
       </c>
       <c r="DY6" t="n">
-        <v>0.05775777414402666</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
         <v>-0</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.003206649552236313</v>
+        <v>0.05060827884281158</v>
       </c>
       <c r="EB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC6" t="n">
-        <v>0.03125838278447143</v>
+        <v>0</v>
       </c>
       <c r="ED6" t="n">
-        <v>-0</v>
+        <v>0.02463985195862901</v>
       </c>
       <c r="EE6" t="n">
         <v>-0</v>
@@ -3688,133 +3688,133 @@
         <v>0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>-0.001186832841766219</v>
       </c>
       <c r="EH6" t="n">
-        <v>-0.0902170332344142</v>
+        <v>0</v>
       </c>
       <c r="EI6" t="n">
         <v>-0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>-0.007300500184523787</v>
+        <v>0.05405793045737024</v>
       </c>
       <c r="EK6" t="n">
         <v>-0</v>
       </c>
       <c r="EL6" t="n">
-        <v>-0.007516046476304709</v>
+        <v>-0</v>
       </c>
       <c r="EM6" t="n">
-        <v>-0</v>
+        <v>0.01132273647538058</v>
       </c>
       <c r="EN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO6" t="n">
         <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>-0</v>
+        <v>-0.04687477570126973</v>
       </c>
       <c r="EQ6" t="n">
-        <v>-0.007807178537390248</v>
+        <v>0</v>
       </c>
       <c r="ER6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.07411806260467177</v>
+        <v>0.01847597564686349</v>
       </c>
       <c r="ET6" t="n">
         <v>-0</v>
       </c>
       <c r="EU6" t="n">
-        <v>-0.01554607422880166</v>
+        <v>-0</v>
       </c>
       <c r="EV6" t="n">
-        <v>0</v>
+        <v>0.03681747963006655</v>
       </c>
       <c r="EW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>-0.03042504632219524</v>
       </c>
       <c r="EZ6" t="n">
-        <v>-0.05828065249758661</v>
+        <v>-0</v>
       </c>
       <c r="FA6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.007969104083678187</v>
+        <v>0.0001037867407597082</v>
       </c>
       <c r="FC6" t="n">
         <v>-0</v>
       </c>
       <c r="FD6" t="n">
-        <v>-0.02050243686040612</v>
+        <v>-0</v>
       </c>
       <c r="FE6" t="n">
-        <v>-0</v>
+        <v>0.002845819723679651</v>
       </c>
       <c r="FF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH6" t="n">
-        <v>0</v>
+        <v>-0.00067723714922764</v>
       </c>
       <c r="FI6" t="n">
-        <v>-0.01556814955213899</v>
+        <v>-0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.02398012129522558</v>
+        <v>-0.03170386045000795</v>
       </c>
       <c r="FL6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM6" t="n">
-        <v>0.01145430724151132</v>
+        <v>-0</v>
       </c>
       <c r="FN6" t="n">
-        <v>0</v>
+        <v>-0.03186899088181164</v>
       </c>
       <c r="FO6" t="n">
         <v>-0</v>
       </c>
       <c r="FP6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>-0</v>
+        <v>-0.0004423759510849711</v>
       </c>
       <c r="FR6" t="n">
-        <v>-0.006423178862836099</v>
+        <v>-0</v>
       </c>
       <c r="FS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT6" t="n">
-        <v>-0.000425741405331859</v>
+        <v>-0.006737069897284935</v>
       </c>
       <c r="FU6" t="n">
         <v>-0</v>
       </c>
       <c r="FV6" t="n">
-        <v>0.01880500050278074</v>
+        <v>-0</v>
       </c>
       <c r="FW6" t="n">
-        <v>0</v>
+        <v>-0.04845294949849172</v>
       </c>
       <c r="FX6" t="n">
         <v>-0</v>
@@ -3823,45 +3823,45 @@
         <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0</v>
+        <v>-0.07956879762677511</v>
       </c>
       <c r="GA6" t="n">
-        <v>0.008230548290330592</v>
+        <v>-0</v>
       </c>
       <c r="GB6" t="n">
         <v>-0</v>
       </c>
       <c r="GC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE6" t="n">
-        <v>0.01764085337368567</v>
+        <v>-0</v>
       </c>
       <c r="GF6" t="n">
-        <v>0</v>
+        <v>-0.04261807501368523</v>
       </c>
       <c r="GG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>-0.1357483605627878</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.1859581025118906</v>
+        <v>0.471545222356621</v>
       </c>
       <c r="C7" t="n">
-        <v>0.296995366583053</v>
+        <v>-0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.07895837070964275</v>
+        <v>-0.1184000133006523</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -3870,31 +3870,31 @@
         <v>-0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>-0.1095341113517893</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.1314965789468013</v>
+        <v>0.3509239546148908</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3194936478645969</v>
+        <v>-0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.001186520141960255</v>
+        <v>-0.2201235638612972</v>
       </c>
       <c r="O7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -3903,25 +3903,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.01782538569656915</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.1347950174883117</v>
+        <v>0.2808156362737016</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1509680699294134</v>
+        <v>-0</v>
       </c>
       <c r="V7" t="n">
         <v>-0</v>
       </c>
       <c r="W7" t="n">
-        <v>0.03827689327645206</v>
+        <v>0.0319595922127156</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
@@ -3930,19 +3930,19 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0</v>
+        <v>6.289197998188628e-11</v>
       </c>
       <c r="AC7" t="n">
-        <v>-1.167682680533556e-10</v>
+        <v>0.04006459550416364</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.03973204278437404</v>
+        <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.03961310618469339</v>
+        <v>-0.01019858267952406</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
@@ -3957,19 +3957,19 @@
         <v>-0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>-0.06171588043171918</v>
       </c>
       <c r="AL7" t="n">
-        <v>-0.08103657878235017</v>
+        <v>0.2291948306416728</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.05371956971990954</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
         <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.02050470409454852</v>
+        <v>0.07473025865300924</v>
       </c>
       <c r="AP7" t="n">
         <v>0</v>
@@ -3978,52 +3978,52 @@
         <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>0.1003439603704824</v>
       </c>
       <c r="AU7" t="n">
-        <v>-0.1857431785913042</v>
+        <v>0.5676199226800873</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.1090704525095628</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
         <v>-0</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.05378942648162957</v>
+        <v>0.187371086190169</v>
       </c>
       <c r="AY7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ7" t="n">
         <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC7" t="n">
-        <v>-0</v>
+        <v>-0.0892895521631611</v>
       </c>
       <c r="BD7" t="n">
-        <v>-0.08134185950084397</v>
+        <v>-0.02484930725929589</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.1749385388266986</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
         <v>0</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.1591756885955825</v>
+        <v>-0.3197824502166963</v>
       </c>
       <c r="BH7" t="n">
         <v>0</v>
@@ -4032,28 +4032,28 @@
         <v>-0</v>
       </c>
       <c r="BJ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK7" t="n">
         <v>0</v>
       </c>
       <c r="BL7" t="n">
-        <v>-0</v>
+        <v>-0.03689702504336245</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.02269291532077773</v>
+        <v>-0.02966004789015406</v>
       </c>
       <c r="BN7" t="n">
-        <v>-0.109194270968833</v>
+        <v>-0</v>
       </c>
       <c r="BO7" t="n">
         <v>-0</v>
       </c>
       <c r="BP7" t="n">
-        <v>-0.08470466562251455</v>
+        <v>0.0486838642217382</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR7" t="n">
         <v>-0</v>
@@ -4062,55 +4062,55 @@
         <v>-0</v>
       </c>
       <c r="BT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU7" t="n">
-        <v>0</v>
+        <v>0.07345566494832846</v>
       </c>
       <c r="BV7" t="n">
-        <v>-0.1339816986293743</v>
+        <v>0.4399428602972525</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.1635654789009806</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY7" t="n">
-        <v>-0.04842711007075107</v>
+        <v>0.01284693057299236</v>
       </c>
       <c r="BZ7" t="n">
         <v>0</v>
       </c>
       <c r="CA7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC7" t="n">
         <v>0</v>
       </c>
       <c r="CD7" t="n">
-        <v>-0</v>
+        <v>0.03846645660931336</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.04433983648349357</v>
+        <v>-0.1205331213713673</v>
       </c>
       <c r="CF7" t="n">
-        <v>-0.06058520819186557</v>
+        <v>0</v>
       </c>
       <c r="CG7" t="n">
         <v>-0</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.02012275929373099</v>
+        <v>0.004452210365959581</v>
       </c>
       <c r="CI7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK7" t="n">
         <v>0</v>
@@ -4119,52 +4119,52 @@
         <v>-0</v>
       </c>
       <c r="CM7" t="n">
-        <v>-0</v>
+        <v>-0.1032579009833072</v>
       </c>
       <c r="CN7" t="n">
-        <v>-0.01872297476323318</v>
+        <v>0.0147022360568047</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.02546989788591689</v>
+        <v>-0</v>
       </c>
       <c r="CP7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.05631337968362434</v>
+        <v>-0.07180381608456735</v>
       </c>
       <c r="CR7" t="n">
         <v>-0</v>
       </c>
       <c r="CS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU7" t="n">
         <v>0</v>
       </c>
       <c r="CV7" t="n">
-        <v>0</v>
+        <v>0.0158223023761332</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.03078838670246878</v>
+        <v>-0.1210588422898496</v>
       </c>
       <c r="CX7" t="n">
-        <v>-0.07128506752655532</v>
+        <v>-0</v>
       </c>
       <c r="CY7" t="n">
         <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.04929818633430143</v>
+        <v>-0.01175359600926998</v>
       </c>
       <c r="DA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC7" t="n">
         <v>-0</v>
@@ -4173,52 +4173,52 @@
         <v>0</v>
       </c>
       <c r="DE7" t="n">
-        <v>-0</v>
+        <v>0.05663395425012152</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.09733298134953106</v>
+        <v>-0.2237433202717032</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.01851952534154126</v>
+        <v>0</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
       </c>
       <c r="DI7" t="n">
-        <v>-0.004131578969870322</v>
+        <v>0.08276643242128741</v>
       </c>
       <c r="DJ7" t="n">
         <v>0</v>
       </c>
       <c r="DK7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN7" t="n">
-        <v>-0</v>
+        <v>-0.06310804839520744</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.111938320051544</v>
+        <v>-0.06499354676030347</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.0894151836554298</v>
+        <v>-0</v>
       </c>
       <c r="DQ7" t="n">
         <v>-0</v>
       </c>
       <c r="DR7" t="n">
-        <v>-0.08007834413768072</v>
+        <v>-0.02238770425467532</v>
       </c>
       <c r="DS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU7" t="n">
         <v>0</v>
@@ -4227,19 +4227,19 @@
         <v>0</v>
       </c>
       <c r="DW7" t="n">
-        <v>-0</v>
+        <v>-0.007604919893029321</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.05637492202808825</v>
+        <v>0.1088560744310052</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.08739112220298623</v>
+        <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA7" t="n">
-        <v>-0.04533608261821784</v>
+        <v>-0.09295560656471952</v>
       </c>
       <c r="EB7" t="n">
         <v>0</v>
@@ -4248,160 +4248,160 @@
         <v>-0</v>
       </c>
       <c r="ED7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE7" t="n">
         <v>-0</v>
       </c>
       <c r="EF7" t="n">
-        <v>-0</v>
+        <v>-0.0280664515375161</v>
       </c>
       <c r="EG7" t="n">
-        <v>-0.05328178538860738</v>
+        <v>0.01490592077984777</v>
       </c>
       <c r="EH7" t="n">
-        <v>-0.08117904072869547</v>
+        <v>0</v>
       </c>
       <c r="EI7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ7" t="n">
-        <v>-0.005732039717934998</v>
+        <v>0.0008176124074175709</v>
       </c>
       <c r="EK7" t="n">
         <v>-0</v>
       </c>
       <c r="EL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM7" t="n">
         <v>-0</v>
       </c>
       <c r="EN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO7" t="n">
-        <v>0</v>
+        <v>0.01199850614588686</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.1720010310646846</v>
+        <v>-0.09958723909169671</v>
       </c>
       <c r="EQ7" t="n">
-        <v>-0.06474975092457584</v>
+        <v>0</v>
       </c>
       <c r="ER7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.1133950922627172</v>
+        <v>-0.00327027413583223</v>
       </c>
       <c r="ET7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW7" t="n">
         <v>-0</v>
       </c>
       <c r="EX7" t="n">
-        <v>-0</v>
+        <v>0.0164381362783753</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.03199382071885869</v>
+        <v>-0.1307353684155892</v>
       </c>
       <c r="EZ7" t="n">
-        <v>-0.06580968455572736</v>
+        <v>0</v>
       </c>
       <c r="FA7" t="n">
         <v>-0</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.03157842118158639</v>
+        <v>-0.04560414542526635</v>
       </c>
       <c r="FC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG7" t="n">
-        <v>-0</v>
+        <v>0.03462099277012803</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.01524692840065266</v>
+        <v>-0.07653719183352026</v>
       </c>
       <c r="FI7" t="n">
-        <v>-0.09195271726991711</v>
+        <v>-0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.02568906587698411</v>
+        <v>-0.1068797934129631</v>
       </c>
       <c r="FL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM7" t="n">
         <v>0</v>
       </c>
       <c r="FN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP7" t="n">
-        <v>-0</v>
+        <v>-0.03968380987151685</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.1495382011353065</v>
+        <v>-0.039867938709974</v>
       </c>
       <c r="FR7" t="n">
-        <v>-0.003861566869156252</v>
+        <v>-0</v>
       </c>
       <c r="FS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.01617202335691907</v>
+        <v>-0.008234770943463005</v>
       </c>
       <c r="FU7" t="n">
         <v>-0</v>
       </c>
       <c r="FV7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX7" t="n">
         <v>-0</v>
       </c>
       <c r="FY7" t="n">
-        <v>0</v>
+        <v>-0.1101802597512309</v>
       </c>
       <c r="FZ7" t="n">
-        <v>-0.03318727751203332</v>
+        <v>-0.02819735980326554</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.1255356488333347</v>
+        <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD7" t="n">
         <v>-0</v>
@@ -4413,7 +4413,7 @@
         <v>-0</v>
       </c>
       <c r="GG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8">
@@ -4421,22 +4421,22 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.4098900443988437</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1792394538647746</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.06267739117662699</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.03880940591768937</v>
+        <v>-0.08227799030695876</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>-0.1604722546308923</v>
       </c>
       <c r="H8" t="n">
         <v>-0</v>
@@ -4448,52 +4448,52 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>-0</v>
+        <v>0.2794223289197117</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1859271920487677</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.04867517413184701</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.03873721963927779</v>
+        <v>-0.1138799556426775</v>
       </c>
       <c r="O8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>-0.1423336817695231</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.1524079558346236</v>
       </c>
       <c r="U8" t="n">
-        <v>0.05074413120624086</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0.06953441595817957</v>
+        <v>-0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.07327664564805084</v>
+        <v>0.1057144407090385</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0</v>
+        <v>-0.03065315048680929</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
@@ -4502,22 +4502,22 @@
         <v>-0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>0.04597981453520556</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.009080709817041158</v>
+        <v>-0</v>
       </c>
       <c r="AE8" t="n">
-        <v>-1.667927963197886e-11</v>
+        <v>-0</v>
       </c>
       <c r="AF8" t="n">
-        <v>-0.006352222825728451</v>
+        <v>0.00278627200385047</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH8" t="n">
-        <v>-0</v>
+        <v>-1.300750975096672e-12</v>
       </c>
       <c r="AI8" t="n">
         <v>-0</v>
@@ -4526,52 +4526,52 @@
         <v>-0</v>
       </c>
       <c r="AK8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.09490530666588119</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.04430025291375116</v>
+        <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>-0.008975581552109091</v>
+        <v>-0</v>
       </c>
       <c r="AO8" t="n">
-        <v>-0.0246862971392752</v>
+        <v>0.03287361078802519</v>
       </c>
       <c r="AP8" t="n">
         <v>0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>-0</v>
+        <v>-0.0752632521930586</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>0.5262943068288627</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.1079583986823301</v>
+        <v>-0</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0.009851609499154078</v>
+        <v>-0</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.06237158729781426</v>
+        <v>0.08213783715734063</v>
       </c>
       <c r="AY8" t="n">
         <v>0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0</v>
+        <v>-0.1029033420601003</v>
       </c>
       <c r="BA8" t="n">
         <v>-0</v>
@@ -4580,28 +4580,28 @@
         <v>0</v>
       </c>
       <c r="BC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>0.07224892749850209</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.06744726253573696</v>
+        <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>-0.05224559703502145</v>
+        <v>0</v>
       </c>
       <c r="BG8" t="n">
-        <v>-0.08597566547475727</v>
+        <v>-0.1566819335878966</v>
       </c>
       <c r="BH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BI8" t="n">
-        <v>0</v>
+        <v>-0.08862330491796601</v>
       </c>
       <c r="BJ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK8" t="n">
         <v>0</v>
@@ -4610,238 +4610,238 @@
         <v>-0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>0.01903338426589549</v>
       </c>
       <c r="BN8" t="n">
-        <v>-0.07294013166685595</v>
+        <v>-0</v>
       </c>
       <c r="BO8" t="n">
-        <v>-0.01893686482969005</v>
+        <v>-0</v>
       </c>
       <c r="BP8" t="n">
-        <v>-0.07215290910508694</v>
+        <v>0.09855255477021753</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR8" t="n">
-        <v>-0</v>
+        <v>0.06142185439939696</v>
       </c>
       <c r="BS8" t="n">
         <v>-0</v>
       </c>
       <c r="BT8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>0.2440550821483009</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.07223451470904926</v>
+        <v>0</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.005591961094091002</v>
+        <v>-0</v>
       </c>
       <c r="BY8" t="n">
-        <v>-0.0007808985705926811</v>
+        <v>0.0001067524158789265</v>
       </c>
       <c r="BZ8" t="n">
         <v>0</v>
       </c>
       <c r="CA8" t="n">
-        <v>0</v>
+        <v>-0.04890422322457139</v>
       </c>
       <c r="CB8" t="n">
         <v>-0</v>
       </c>
       <c r="CC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>-0</v>
+        <v>-0.1180164843711058</v>
       </c>
       <c r="CF8" t="n">
-        <v>-0.04123689252963919</v>
+        <v>0</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.02620442655580586</v>
+        <v>-0</v>
       </c>
       <c r="CH8" t="n">
-        <v>-0.0125551368928817</v>
+        <v>-0.0002147394170136029</v>
       </c>
       <c r="CI8" t="n">
         <v>-0</v>
       </c>
       <c r="CJ8" t="n">
-        <v>-0</v>
+        <v>0.05404896621148526</v>
       </c>
       <c r="CK8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL8" t="n">
         <v>-0</v>
       </c>
       <c r="CM8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>0</v>
+        <v>-0.05571621167399746</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.02980814619595461</v>
+        <v>-0</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.004498558456811336</v>
+        <v>-0</v>
       </c>
       <c r="CQ8" t="n">
-        <v>-2.625810959866231e-05</v>
+        <v>-0.06379555282570942</v>
       </c>
       <c r="CR8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS8" t="n">
-        <v>-0</v>
+        <v>0.009798578260283432</v>
       </c>
       <c r="CT8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW8" t="n">
-        <v>-0</v>
+        <v>-0.1106735706611887</v>
       </c>
       <c r="CX8" t="n">
-        <v>-0.03943177775929811</v>
+        <v>-0</v>
       </c>
       <c r="CY8" t="n">
-        <v>0.02329841871600545</v>
+        <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.005256490897677716</v>
+        <v>-0.004626446785627507</v>
       </c>
       <c r="DA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB8" t="n">
-        <v>-0</v>
+        <v>0.05954125072354864</v>
       </c>
       <c r="DC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD8" t="n">
         <v>0</v>
       </c>
       <c r="DE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>-0</v>
+        <v>-0.2577705968754488</v>
       </c>
       <c r="DG8" t="n">
-        <v>-0.0141542273723933</v>
+        <v>-0</v>
       </c>
       <c r="DH8" t="n">
-        <v>-0.02705079320697422</v>
+        <v>-0</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.04723406587050994</v>
+        <v>0.05676800317147357</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK8" t="n">
-        <v>0</v>
+        <v>-0.04572640180826062</v>
       </c>
       <c r="DL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM8" t="n">
         <v>0</v>
       </c>
       <c r="DN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO8" t="n">
-        <v>-0</v>
+        <v>-0.0186753328669094</v>
       </c>
       <c r="DP8" t="n">
-        <v>0.04626854351049096</v>
+        <v>0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0.00773045743898881</v>
+        <v>-0</v>
       </c>
       <c r="DR8" t="n">
-        <v>-0.07317751989220385</v>
+        <v>-0.01057363926653227</v>
       </c>
       <c r="DS8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT8" t="n">
-        <v>-0</v>
+        <v>0.01706972545431486</v>
       </c>
       <c r="DU8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV8" t="n">
         <v>0</v>
       </c>
       <c r="DW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX8" t="n">
-        <v>-0</v>
+        <v>0.08513952644225262</v>
       </c>
       <c r="DY8" t="n">
-        <v>0.05094408492076947</v>
+        <v>0</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0.01861548377720062</v>
+        <v>-0</v>
       </c>
       <c r="EA8" t="n">
-        <v>3.027145015013427e-05</v>
+        <v>-0.04212632996419635</v>
       </c>
       <c r="EB8" t="n">
         <v>0</v>
       </c>
       <c r="EC8" t="n">
-        <v>0</v>
+        <v>0.007186996227142493</v>
       </c>
       <c r="ED8" t="n">
         <v>0</v>
       </c>
       <c r="EE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0.04469998879471928</v>
       </c>
       <c r="EH8" t="n">
-        <v>-0.05306264239237964</v>
+        <v>0</v>
       </c>
       <c r="EI8" t="n">
-        <v>0.04613563707888444</v>
+        <v>-0</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.03402026837107448</v>
+        <v>0.03184625342459373</v>
       </c>
       <c r="EK8" t="n">
         <v>-0</v>
       </c>
       <c r="EL8" t="n">
-        <v>-0</v>
+        <v>0.04868115966043891</v>
       </c>
       <c r="EM8" t="n">
         <v>-0</v>
@@ -4850,25 +4850,25 @@
         <v>-0</v>
       </c>
       <c r="EO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>-0</v>
+        <v>-0.07096211506215327</v>
       </c>
       <c r="EQ8" t="n">
-        <v>-0.01544175919215704</v>
+        <v>0</v>
       </c>
       <c r="ER8" t="n">
-        <v>-0.01105059569457965</v>
+        <v>-0</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.02843363506254479</v>
+        <v>-0.02246581162229058</v>
       </c>
       <c r="ET8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU8" t="n">
-        <v>0</v>
+        <v>-0.02248952459950865</v>
       </c>
       <c r="EV8" t="n">
         <v>-0</v>
@@ -4877,28 +4877,28 @@
         <v>-0</v>
       </c>
       <c r="EX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0.1151516076051104</v>
       </c>
       <c r="EZ8" t="n">
-        <v>-0.03627684922690027</v>
+        <v>0</v>
       </c>
       <c r="FA8" t="n">
-        <v>0.02539084981428221</v>
+        <v>-0</v>
       </c>
       <c r="FB8" t="n">
-        <v>2.443883214187148e-05</v>
+        <v>-0.02033570527087088</v>
       </c>
       <c r="FC8" t="n">
         <v>-0</v>
       </c>
       <c r="FD8" t="n">
-        <v>0</v>
+        <v>0.06151894651262665</v>
       </c>
       <c r="FE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF8" t="n">
         <v>-0</v>
@@ -4907,49 +4907,49 @@
         <v>-0</v>
       </c>
       <c r="FH8" t="n">
-        <v>0</v>
+        <v>-0.08161482493172421</v>
       </c>
       <c r="FI8" t="n">
-        <v>-0.0410265937933077</v>
+        <v>-0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>-0.00709652849377309</v>
+        <v>0</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.01069476347534727</v>
+        <v>-0.06190685197872927</v>
       </c>
       <c r="FL8" t="n">
         <v>-0</v>
       </c>
       <c r="FM8" t="n">
-        <v>-0</v>
+        <v>0.03084676356172001</v>
       </c>
       <c r="FN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ8" t="n">
-        <v>-0</v>
+        <v>-0.01597373766650189</v>
       </c>
       <c r="FR8" t="n">
-        <v>-0.00219068890122599</v>
+        <v>-0</v>
       </c>
       <c r="FS8" t="n">
-        <v>-0.0334391428528817</v>
+        <v>-0</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.002818826242433862</v>
+        <v>0.007080682751813538</v>
       </c>
       <c r="FU8" t="n">
         <v>-0</v>
       </c>
       <c r="FV8" t="n">
-        <v>0</v>
+        <v>0.05367644865522656</v>
       </c>
       <c r="FW8" t="n">
         <v>0</v>
@@ -4958,48 +4958,48 @@
         <v>-0</v>
       </c>
       <c r="FY8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ8" t="n">
-        <v>-0</v>
+        <v>-0.07605121471279719</v>
       </c>
       <c r="GA8" t="n">
-        <v>0.05589680367483305</v>
+        <v>0</v>
       </c>
       <c r="GB8" t="n">
-        <v>0.0248073688596369</v>
+        <v>-0</v>
       </c>
       <c r="GC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD8" t="n">
         <v>-0</v>
       </c>
       <c r="GE8" t="n">
-        <v>0</v>
+        <v>-0.09427837772574504</v>
       </c>
       <c r="GF8" t="n">
         <v>-0</v>
       </c>
       <c r="GG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>-0</v>
+        <v>0.5957070299934158</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2930529481933399</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.02146436567244696</v>
+        <v>-0.1696867093349326</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5008,25 +5008,25 @@
         <v>-0</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.1522768263068376</v>
+        <v>-0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>-0.2339278100894732</v>
       </c>
       <c r="J9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.448974670023354</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2749226429824986</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.02567540102821612</v>
+        <v>-0.2058805598437507</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -5035,52 +5035,52 @@
         <v>-0</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.1751887027502161</v>
+        <v>-0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>-0.2173415236387826</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.2123233266226793</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.01505627458667126</v>
+        <v>-0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.03713023199424501</v>
+        <v>0.00385825139451771</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.09756702954322653</v>
+        <v>-0</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0</v>
+        <v>-0.04436097778096185</v>
       </c>
       <c r="AB9" t="n">
         <v>-0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>0.05839711786124133</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0.005887324075502776</v>
+        <v>-0</v>
       </c>
       <c r="AE9" t="n">
         <v>-0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.004665901442535084</v>
+        <v>-0.01209987869598493</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
@@ -5089,25 +5089,25 @@
         <v>-0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.003742883203600142</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>-0</v>
+        <v>-0.005791483618786395</v>
       </c>
       <c r="AK9" t="n">
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>-0</v>
+        <v>0.134595462251407</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.09630177043475353</v>
+        <v>-0</v>
       </c>
       <c r="AN9" t="n">
         <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.09519545300040903</v>
+        <v>0.002605866371041171</v>
       </c>
       <c r="AP9" t="n">
         <v>0</v>
@@ -5116,25 +5116,25 @@
         <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>-0.03170662635372833</v>
+        <v>-0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0</v>
+        <v>-0.04072840051334569</v>
       </c>
       <c r="AT9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU9" t="n">
-        <v>-0</v>
+        <v>0.6524579953298536</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.1745769052451823</v>
+        <v>-0</v>
       </c>
       <c r="AW9" t="n">
         <v>-0</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.02661582821212088</v>
+        <v>0.06351245641272907</v>
       </c>
       <c r="AY9" t="n">
         <v>0</v>
@@ -5143,25 +5143,25 @@
         <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>-0.1523236636114617</v>
+        <v>-0</v>
       </c>
       <c r="BB9" t="n">
-        <v>0</v>
+        <v>-0.1647765097551635</v>
       </c>
       <c r="BC9" t="n">
         <v>-0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>0.1373202862337907</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.1450309818479438</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
         <v>0</v>
       </c>
       <c r="BG9" t="n">
-        <v>-0.05608917521921722</v>
+        <v>-0.2926253679172579</v>
       </c>
       <c r="BH9" t="n">
         <v>0</v>
@@ -5170,349 +5170,349 @@
         <v>-0</v>
       </c>
       <c r="BJ9" t="n">
-        <v>-0.1021437106874569</v>
+        <v>0</v>
       </c>
       <c r="BK9" t="n">
-        <v>0</v>
+        <v>-0.1399409036545141</v>
       </c>
       <c r="BL9" t="n">
         <v>-0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0</v>
+        <v>-0.03139032031344098</v>
       </c>
       <c r="BN9" t="n">
-        <v>-0.09590086579283194</v>
+        <v>-0</v>
       </c>
       <c r="BO9" t="n">
         <v>0</v>
       </c>
       <c r="BP9" t="n">
-        <v>-0.06884393990131502</v>
+        <v>0.2181287444900121</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR9" t="n">
         <v>-0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.08640145503756587</v>
+        <v>-0</v>
       </c>
       <c r="BT9" t="n">
-        <v>-0</v>
+        <v>-0.005477750310742354</v>
       </c>
       <c r="BU9" t="n">
         <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>0</v>
+        <v>0.4078918779930873</v>
       </c>
       <c r="BW9" t="n">
-        <v>0.128174457372003</v>
+        <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY9" t="n">
-        <v>-0.03781812951217316</v>
+        <v>0.04297685847085359</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA9" t="n">
         <v>0</v>
       </c>
       <c r="CB9" t="n">
-        <v>-0.05590307971889902</v>
+        <v>-0</v>
       </c>
       <c r="CC9" t="n">
-        <v>0</v>
+        <v>-0.05803283620738584</v>
       </c>
       <c r="CD9" t="n">
         <v>0</v>
       </c>
       <c r="CE9" t="n">
-        <v>-0</v>
+        <v>-0.1662124194299424</v>
       </c>
       <c r="CF9" t="n">
-        <v>-0.08264766572922112</v>
+        <v>-0</v>
       </c>
       <c r="CG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH9" t="n">
-        <v>-0.003812975176618983</v>
+        <v>-0.003134508757096788</v>
       </c>
       <c r="CI9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK9" t="n">
-        <v>0.04323355425455296</v>
+        <v>-0</v>
       </c>
       <c r="CL9" t="n">
-        <v>-0</v>
+        <v>0.0994535199869427</v>
       </c>
       <c r="CM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>-0</v>
+        <v>-0.1079344122890634</v>
       </c>
       <c r="CO9" t="n">
-        <v>-0.006447648586728936</v>
+        <v>0</v>
       </c>
       <c r="CP9" t="n">
         <v>-0</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.04672140666965238</v>
+        <v>-0.06457839891453634</v>
       </c>
       <c r="CR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.03184575736348486</v>
+        <v>-0</v>
       </c>
       <c r="CU9" t="n">
-        <v>0</v>
+        <v>0.01189848822070122</v>
       </c>
       <c r="CV9" t="n">
         <v>-0</v>
       </c>
       <c r="CW9" t="n">
-        <v>0</v>
+        <v>-0.1435100062129844</v>
       </c>
       <c r="CX9" t="n">
-        <v>-0.08539663840371996</v>
+        <v>-0</v>
       </c>
       <c r="CY9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.03481482129965709</v>
+        <v>0.002914210024429154</v>
       </c>
       <c r="DA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC9" t="n">
-        <v>0.03441608622896027</v>
+        <v>0</v>
       </c>
       <c r="DD9" t="n">
-        <v>0</v>
+        <v>0.08346824965068411</v>
       </c>
       <c r="DE9" t="n">
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0.2757533220253617</v>
       </c>
       <c r="DG9" t="n">
-        <v>-0.0199366505458761</v>
+        <v>-0</v>
       </c>
       <c r="DH9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI9" t="n">
-        <v>0.03167807972724897</v>
+        <v>0.03742216675639115</v>
       </c>
       <c r="DJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK9" t="n">
         <v>0</v>
       </c>
       <c r="DL9" t="n">
-        <v>0.04063152386332407</v>
+        <v>-0</v>
       </c>
       <c r="DM9" t="n">
-        <v>0</v>
+        <v>0.03382726213238105</v>
       </c>
       <c r="DN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO9" t="n">
-        <v>-0</v>
+        <v>-0.0524889167509658</v>
       </c>
       <c r="DP9" t="n">
-        <v>-0.01547008863202396</v>
+        <v>0</v>
       </c>
       <c r="DQ9" t="n">
         <v>-0</v>
       </c>
       <c r="DR9" t="n">
-        <v>0.03091489800238727</v>
+        <v>-0.01897198861855883</v>
       </c>
       <c r="DS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT9" t="n">
         <v>0</v>
       </c>
       <c r="DU9" t="n">
-        <v>-0.04782271657455431</v>
+        <v>0</v>
       </c>
       <c r="DV9" t="n">
-        <v>0</v>
+        <v>-0.02259084022748285</v>
       </c>
       <c r="DW9" t="n">
         <v>-0</v>
       </c>
       <c r="DX9" t="n">
-        <v>0</v>
+        <v>0.1287055737378587</v>
       </c>
       <c r="DY9" t="n">
-        <v>0.05634231237363939</v>
+        <v>0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA9" t="n">
-        <v>-0.004599147943560398</v>
+        <v>-0.04856352747623631</v>
       </c>
       <c r="EB9" t="n">
         <v>-0</v>
       </c>
       <c r="EC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED9" t="n">
-        <v>0.07638594152442338</v>
+        <v>-0</v>
       </c>
       <c r="EE9" t="n">
-        <v>-0</v>
+        <v>-0.002166771162325189</v>
       </c>
       <c r="EF9" t="n">
         <v>0</v>
       </c>
       <c r="EG9" t="n">
-        <v>0</v>
+        <v>-0.03605802408271335</v>
       </c>
       <c r="EH9" t="n">
-        <v>-0.07625588682725096</v>
+        <v>0</v>
       </c>
       <c r="EI9" t="n">
         <v>0</v>
       </c>
       <c r="EJ9" t="n">
-        <v>-0.04860557775590538</v>
+        <v>0.03003494941585363</v>
       </c>
       <c r="EK9" t="n">
         <v>0</v>
       </c>
       <c r="EL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM9" t="n">
-        <v>0.06951930550074294</v>
+        <v>0</v>
       </c>
       <c r="EN9" t="n">
-        <v>0</v>
+        <v>0.137731513553764</v>
       </c>
       <c r="EO9" t="n">
         <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>-0</v>
+        <v>-0.1294142052476756</v>
       </c>
       <c r="EQ9" t="n">
-        <v>-0.007210262094359553</v>
+        <v>0</v>
       </c>
       <c r="ER9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.01253272424320774</v>
+        <v>0.01001814084406722</v>
       </c>
       <c r="ET9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU9" t="n">
         <v>0</v>
       </c>
       <c r="EV9" t="n">
-        <v>0.01617039774026712</v>
+        <v>0</v>
       </c>
       <c r="EW9" t="n">
-        <v>-0</v>
+        <v>0.04018003600841379</v>
       </c>
       <c r="EX9" t="n">
         <v>0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>-0.1730053009386717</v>
       </c>
       <c r="EZ9" t="n">
-        <v>-0.09219069883547527</v>
+        <v>-0</v>
       </c>
       <c r="FA9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.0181855472159258</v>
+        <v>-0.006680594824809261</v>
       </c>
       <c r="FC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE9" t="n">
-        <v>0.04992175714849808</v>
+        <v>-0</v>
       </c>
       <c r="FF9" t="n">
-        <v>-0</v>
+        <v>0.08106363987243112</v>
       </c>
       <c r="FG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH9" t="n">
-        <v>0</v>
+        <v>-0.09365301958237854</v>
       </c>
       <c r="FI9" t="n">
-        <v>-0.06504398265052286</v>
+        <v>-0</v>
       </c>
       <c r="FJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.03818873878682224</v>
+        <v>-0.07364333820539103</v>
       </c>
       <c r="FL9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN9" t="n">
-        <v>0.01441397594083974</v>
+        <v>0</v>
       </c>
       <c r="FO9" t="n">
-        <v>-0</v>
+        <v>-0.08289972846443332</v>
       </c>
       <c r="FP9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>-0</v>
+        <v>-0.02461631250917898</v>
       </c>
       <c r="FR9" t="n">
-        <v>-0.01446959743003285</v>
+        <v>-0</v>
       </c>
       <c r="FS9" t="n">
         <v>-0</v>
       </c>
       <c r="FT9" t="n">
-        <v>-0.0001580914859764569</v>
+        <v>0.005662067530327327</v>
       </c>
       <c r="FU9" t="n">
         <v>-0</v>
@@ -5521,37 +5521,37 @@
         <v>-0</v>
       </c>
       <c r="FW9" t="n">
-        <v>0.001476109193132169</v>
+        <v>-0</v>
       </c>
       <c r="FX9" t="n">
-        <v>-0</v>
+        <v>0.02765675302878911</v>
       </c>
       <c r="FY9" t="n">
         <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>-0</v>
+        <v>-0.1405516112716614</v>
       </c>
       <c r="GA9" t="n">
-        <v>0.03712254491960675</v>
+        <v>0</v>
       </c>
       <c r="GB9" t="n">
         <v>-0</v>
       </c>
       <c r="GC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE9" t="n">
         <v>-0</v>
       </c>
       <c r="GF9" t="n">
-        <v>0.04030883269676615</v>
+        <v>0</v>
       </c>
       <c r="GG9" t="n">
-        <v>0</v>
+        <v>-0.02207852803345344</v>
       </c>
     </row>
     <row r="10">
@@ -5559,10 +5559,10 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -5586,10 +5586,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -5613,10 +5613,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -5640,10 +5640,10 @@
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
         <v>0</v>
@@ -5667,10 +5667,10 @@
         <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
         <v>0</v>
@@ -5694,10 +5694,10 @@
         <v>0</v>
       </c>
       <c r="AU10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW10" t="n">
         <v>0</v>
@@ -5721,10 +5721,10 @@
         <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF10" t="n">
         <v>0</v>
@@ -5748,10 +5748,10 @@
         <v>0</v>
       </c>
       <c r="BM10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO10" t="n">
         <v>0</v>
@@ -5775,10 +5775,10 @@
         <v>0</v>
       </c>
       <c r="BV10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
         <v>0</v>
@@ -5802,10 +5802,10 @@
         <v>0</v>
       </c>
       <c r="CE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG10" t="n">
         <v>0</v>
@@ -5829,10 +5829,10 @@
         <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP10" t="n">
         <v>0</v>
@@ -5883,10 +5883,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -5910,10 +5910,10 @@
         <v>0</v>
       </c>
       <c r="DO10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ10" t="n">
         <v>0</v>
@@ -5964,10 +5964,10 @@
         <v>0</v>
       </c>
       <c r="EG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI10" t="n">
         <v>0</v>
@@ -5991,10 +5991,10 @@
         <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER10" t="n">
         <v>0</v>
@@ -6018,10 +6018,10 @@
         <v>0</v>
       </c>
       <c r="EY10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA10" t="n">
         <v>0</v>
@@ -6045,10 +6045,10 @@
         <v>0</v>
       </c>
       <c r="FH10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ10" t="n">
         <v>0</v>
@@ -6072,10 +6072,10 @@
         <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS10" t="n">
         <v>0</v>
@@ -6125,22 +6125,22 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>-0</v>
+        <v>-0.5856001959820877</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.3433891021640806</v>
+        <v>0.5022069967477493</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.07319340174181477</v>
+        <v>0.2019405168929685</v>
       </c>
       <c r="F11" t="n">
-        <v>0.381450172304173</v>
+        <v>-0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -6155,22 +6155,22 @@
         <v>-0</v>
       </c>
       <c r="K11" t="n">
-        <v>-0</v>
+        <v>-0.4466406107400447</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.3472452777642425</v>
+        <v>0.3649670802807409</v>
       </c>
       <c r="M11" t="n">
         <v>-0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.07706442439750243</v>
+        <v>0.3209053489582296</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4196849956591602</v>
+        <v>-0</v>
       </c>
       <c r="P11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -6182,100 +6182,100 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-0</v>
+        <v>-0.1810590841102909</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.03548214748566253</v>
+        <v>0.01800573941513638</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1427501320006246</v>
+        <v>-0.03597234547544773</v>
       </c>
       <c r="X11" t="n">
-        <v>0.212563566357907</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
         <v>-0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0</v>
+        <v>-0.08992670870348285</v>
       </c>
       <c r="AD11" t="n">
-        <v>-0.01132824218402712</v>
+        <v>0.001589339339085907</v>
       </c>
       <c r="AE11" t="n">
         <v>-0</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.1212139673086722</v>
+        <v>-0.02538595015608277</v>
       </c>
       <c r="AG11" t="n">
-        <v>-0.01283185765679186</v>
+        <v>-0</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>-0.3067323077130655</v>
       </c>
       <c r="AM11" t="n">
-        <v>-0.1279417826610734</v>
+        <v>0.0530606601333064</v>
       </c>
       <c r="AN11" t="n">
         <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.1073136268369969</v>
+        <v>-0.02159134968205524</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.114161337928525</v>
+        <v>-0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT11" t="n">
         <v>0</v>
       </c>
       <c r="AU11" t="n">
-        <v>-0</v>
+        <v>-0.617233362100586</v>
       </c>
       <c r="AV11" t="n">
-        <v>-0.2389925811038967</v>
+        <v>0.3770445913161772</v>
       </c>
       <c r="AW11" t="n">
         <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>-0.2450308781847161</v>
+        <v>0.0224074979188193</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.1165327272896261</v>
+        <v>-0</v>
       </c>
       <c r="AZ11" t="n">
         <v>-0</v>
@@ -6284,31 +6284,31 @@
         <v>-0</v>
       </c>
       <c r="BB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC11" t="n">
         <v>-0</v>
       </c>
       <c r="BD11" t="n">
-        <v>-0</v>
+        <v>-0.1065925556001996</v>
       </c>
       <c r="BE11" t="n">
-        <v>-0.03320838768636372</v>
+        <v>0.1608053621663371</v>
       </c>
       <c r="BF11" t="n">
         <v>-0</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.2673039224684718</v>
+        <v>0.4640094995812941</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.1525096725115454</v>
+        <v>0</v>
       </c>
       <c r="BI11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK11" t="n">
         <v>-0</v>
@@ -6317,46 +6317,46 @@
         <v>0</v>
       </c>
       <c r="BM11" t="n">
-        <v>-0</v>
+        <v>-0.1452236846289819</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.04291398868647296</v>
+        <v>0.09469487937371532</v>
       </c>
       <c r="BO11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.1497232651332796</v>
+        <v>-0.06245659527023845</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.01933413962324096</v>
+        <v>0</v>
       </c>
       <c r="BR11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT11" t="n">
         <v>0</v>
       </c>
       <c r="BU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV11" t="n">
-        <v>-0</v>
+        <v>-0.2765555048289</v>
       </c>
       <c r="BW11" t="n">
-        <v>-0.1353698062710152</v>
+        <v>0.4013442095394716</v>
       </c>
       <c r="BX11" t="n">
         <v>-0</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.09140061780615499</v>
+        <v>0.004434337996179909</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.3260840502831588</v>
+        <v>0</v>
       </c>
       <c r="CA11" t="n">
         <v>0</v>
@@ -6368,25 +6368,25 @@
         <v>0</v>
       </c>
       <c r="CD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE11" t="n">
-        <v>0</v>
+        <v>0.1432574306917467</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.09101013686231317</v>
+        <v>-0.05865092973877033</v>
       </c>
       <c r="CG11" t="n">
         <v>0</v>
       </c>
       <c r="CH11" t="n">
-        <v>-0.0008480232873406845</v>
+        <v>-0.07377024584961395</v>
       </c>
       <c r="CI11" t="n">
-        <v>-0.09174890366480681</v>
+        <v>0</v>
       </c>
       <c r="CJ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK11" t="n">
         <v>-0</v>
@@ -6398,19 +6398,19 @@
         <v>-0</v>
       </c>
       <c r="CN11" t="n">
-        <v>0</v>
+        <v>-0.04580832386164815</v>
       </c>
       <c r="CO11" t="n">
-        <v>-0.07197592272121571</v>
+        <v>0.009052390728214236</v>
       </c>
       <c r="CP11" t="n">
         <v>0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>-0.1522418194108691</v>
+        <v>-0.1053647506541834</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.0300979482104451</v>
+        <v>0</v>
       </c>
       <c r="CS11" t="n">
         <v>0</v>
@@ -6425,22 +6425,22 @@
         <v>-0</v>
       </c>
       <c r="CW11" t="n">
-        <v>-0</v>
+        <v>0.08292950891231435</v>
       </c>
       <c r="CX11" t="n">
-        <v>0.07499615975169241</v>
+        <v>-0.05278747009344598</v>
       </c>
       <c r="CY11" t="n">
         <v>-0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>-0.07842239608746349</v>
+        <v>-0.03297007351594661</v>
       </c>
       <c r="DA11" t="n">
-        <v>-0.0615273282340551</v>
+        <v>-0</v>
       </c>
       <c r="DB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC11" t="n">
         <v>0</v>
@@ -6449,49 +6449,49 @@
         <v>-0</v>
       </c>
       <c r="DE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF11" t="n">
-        <v>-0</v>
+        <v>0.1128864293612076</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.05432759699960761</v>
+        <v>0.0698839246658456</v>
       </c>
       <c r="DH11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.09480588508883017</v>
+        <v>0.09902490285184505</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.1198008566738744</v>
+        <v>0</v>
       </c>
       <c r="DK11" t="n">
         <v>-0</v>
       </c>
       <c r="DL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM11" t="n">
         <v>-0</v>
       </c>
       <c r="DN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO11" t="n">
-        <v>-0</v>
+        <v>0.0009514928174906399</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.01250898178077962</v>
+        <v>-0.04621032599136168</v>
       </c>
       <c r="DQ11" t="n">
         <v>0</v>
       </c>
       <c r="DR11" t="n">
-        <v>-0.0005669629423944006</v>
+        <v>-0.1014787998134182</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.03855926504649886</v>
+        <v>0</v>
       </c>
       <c r="DT11" t="n">
         <v>0</v>
@@ -6503,79 +6503,79 @@
         <v>-0</v>
       </c>
       <c r="DW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX11" t="n">
-        <v>0</v>
+        <v>-0.0147438247669354</v>
       </c>
       <c r="DY11" t="n">
-        <v>-0.03554184600195503</v>
+        <v>0.1214368583341717</v>
       </c>
       <c r="DZ11" t="n">
         <v>0</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.01108499384597198</v>
+        <v>0.09464167323103202</v>
       </c>
       <c r="EB11" t="n">
-        <v>-0.0638332016158404</v>
+        <v>-0</v>
       </c>
       <c r="EC11" t="n">
         <v>-0</v>
       </c>
       <c r="ED11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG11" t="n">
-        <v>-0</v>
+        <v>0.04739073703616527</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.1142487494659561</v>
+        <v>-0.03314198676337968</v>
       </c>
       <c r="EI11" t="n">
         <v>0</v>
       </c>
       <c r="EJ11" t="n">
-        <v>-0.1131527164003065</v>
+        <v>-0.1130302533890585</v>
       </c>
       <c r="EK11" t="n">
-        <v>-0.1582945923895053</v>
+        <v>0</v>
       </c>
       <c r="EL11" t="n">
         <v>0</v>
       </c>
       <c r="EM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO11" t="n">
         <v>-0</v>
       </c>
       <c r="EP11" t="n">
-        <v>0</v>
+        <v>0.02784314165513375</v>
       </c>
       <c r="EQ11" t="n">
-        <v>-0.006762134850363311</v>
+        <v>0.09325877213996679</v>
       </c>
       <c r="ER11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.03916370239784286</v>
+        <v>-0.04580871629295503</v>
       </c>
       <c r="ET11" t="n">
-        <v>-0.09381446678061758</v>
+        <v>0</v>
       </c>
       <c r="EU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV11" t="n">
         <v>-0</v>
@@ -6584,49 +6584,49 @@
         <v>0</v>
       </c>
       <c r="EX11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY11" t="n">
-        <v>-0</v>
+        <v>0.09084816304900233</v>
       </c>
       <c r="EZ11" t="n">
-        <v>0.08570739630404722</v>
+        <v>-0.04808789099140418</v>
       </c>
       <c r="FA11" t="n">
         <v>0</v>
       </c>
       <c r="FB11" t="n">
-        <v>-0.04081531808020632</v>
+        <v>-0.05293122716942122</v>
       </c>
       <c r="FC11" t="n">
-        <v>-0.05982713527775222</v>
+        <v>0</v>
       </c>
       <c r="FD11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE11" t="n">
         <v>-0</v>
       </c>
       <c r="FF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG11" t="n">
         <v>0</v>
       </c>
       <c r="FH11" t="n">
-        <v>-0</v>
+        <v>0.1511096807473324</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.06822289084970089</v>
+        <v>0.1640419176618498</v>
       </c>
       <c r="FJ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK11" t="n">
-        <v>-0.01825324281028632</v>
+        <v>0.2202719246022012</v>
       </c>
       <c r="FL11" t="n">
-        <v>-0.04358175457024646</v>
+        <v>-0</v>
       </c>
       <c r="FM11" t="n">
         <v>-0</v>
@@ -6638,40 +6638,40 @@
         <v>-0</v>
       </c>
       <c r="FP11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0</v>
+        <v>0.000122649232929846</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.001044668667110443</v>
+        <v>-0.06476043956903237</v>
       </c>
       <c r="FS11" t="n">
         <v>0</v>
       </c>
       <c r="FT11" t="n">
-        <v>-0.0005724990367555165</v>
+        <v>0.01150767731223456</v>
       </c>
       <c r="FU11" t="n">
-        <v>-0.04643685210174154</v>
+        <v>0</v>
       </c>
       <c r="FV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0</v>
+        <v>-0.09324930545369339</v>
       </c>
       <c r="GA11" t="n">
-        <v>-0.08381297296160134</v>
+        <v>-0.03898125574773053</v>
       </c>
       <c r="GB11" t="n">
         <v>-0</v>
@@ -6680,7 +6680,7 @@
         <v>0</v>
       </c>
       <c r="GD11" t="n">
-        <v>0.01316485370575382</v>
+        <v>0</v>
       </c>
       <c r="GE11" t="n">
         <v>0</v>
@@ -6697,25 +6697,25 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.1719540176490533</v>
       </c>
       <c r="C12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.0124731180660889</v>
+        <v>-0.05510748947682456</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3131357536075625</v>
+        <v>-0.08715665807871681</v>
       </c>
       <c r="G12" t="n">
         <v>-0</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.0836106616637966</v>
+        <v>-0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -6724,25 +6724,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.1390656461686944</v>
       </c>
       <c r="L12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.04565212276925949</v>
+        <v>-0.02624024872693008</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2738754525661404</v>
+        <v>-0.07232889606455117</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.06512958399667346</v>
+        <v>-0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -6751,25 +6751,25 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.02727864124550647</v>
       </c>
       <c r="U12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.04135783869165301</v>
+        <v>-0.01982417378577795</v>
       </c>
       <c r="X12" t="n">
-        <v>0.07375564879979757</v>
+        <v>0.00177633182022937</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.005587165895430746</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
@@ -6778,52 +6778,52 @@
         <v>-0</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0</v>
+        <v>0.003768989232316697</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE12" t="n">
         <v>-0</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.04607386199300928</v>
+        <v>0.00501737195938803</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0.01047748706435212</v>
+        <v>0.002169836679830884</v>
       </c>
       <c r="AH12" t="n">
         <v>-0</v>
       </c>
       <c r="AI12" t="n">
-        <v>-0.00899477013726669</v>
+        <v>-0</v>
       </c>
       <c r="AJ12" t="n">
         <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>-0</v>
+        <v>0.02590748447132112</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.0365179831450139</v>
+        <v>0.0008909777968175589</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.04508018126584569</v>
+        <v>-0.04164852344248137</v>
       </c>
       <c r="AQ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.0223131403932799</v>
+        <v>-0</v>
       </c>
       <c r="AS12" t="n">
         <v>0</v>
@@ -6832,52 +6832,52 @@
         <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>0</v>
+        <v>0.1271298540695137</v>
       </c>
       <c r="AV12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW12" t="n">
         <v>0</v>
       </c>
       <c r="AX12" t="n">
-        <v>-0.04687011601936206</v>
+        <v>-0.03770247805047881</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.151689235760051</v>
+        <v>-0.09526868018307566</v>
       </c>
       <c r="AZ12" t="n">
         <v>-0</v>
       </c>
       <c r="BA12" t="n">
-        <v>-0.04842570204684704</v>
+        <v>-0</v>
       </c>
       <c r="BB12" t="n">
         <v>0</v>
       </c>
       <c r="BC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>-0</v>
+        <v>0.03604310439482949</v>
       </c>
       <c r="BE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG12" t="n">
-        <v>-0.02798259667181826</v>
+        <v>-0.03919740946567946</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.07555184284814347</v>
+        <v>-0.02183761878672415</v>
       </c>
       <c r="BI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>-0.06802037080793276</v>
+        <v>0</v>
       </c>
       <c r="BK12" t="n">
         <v>0</v>
@@ -6886,160 +6886,160 @@
         <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>0</v>
+        <v>0.03191466590888783</v>
       </c>
       <c r="BN12" t="n">
         <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP12" t="n">
-        <v>-0.01811572307809542</v>
+        <v>0.003310019553334726</v>
       </c>
       <c r="BQ12" t="n">
-        <v>-0.03845732830463874</v>
+        <v>0.008157693347078132</v>
       </c>
       <c r="BR12" t="n">
         <v>-0</v>
       </c>
       <c r="BS12" t="n">
-        <v>-0.01187338638867337</v>
+        <v>0</v>
       </c>
       <c r="BT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV12" t="n">
-        <v>0</v>
+        <v>0.07007692543435005</v>
       </c>
       <c r="BW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
         <v>0</v>
       </c>
       <c r="BY12" t="n">
-        <v>-0.006561405030000189</v>
+        <v>-0.02844187206118379</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.1366918284810005</v>
+        <v>-0.02748117557111489</v>
       </c>
       <c r="CA12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB12" t="n">
-        <v>-0.0194158453527494</v>
+        <v>-0</v>
       </c>
       <c r="CC12" t="n">
         <v>0</v>
       </c>
       <c r="CD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE12" t="n">
-        <v>-0</v>
+        <v>-0.03525370561808943</v>
       </c>
       <c r="CF12" t="n">
         <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.01439326935806796</v>
+        <v>0.0008299013390268792</v>
       </c>
       <c r="CI12" t="n">
-        <v>-0.05981005569487324</v>
+        <v>0.02571409301663053</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.01732551435905094</v>
+        <v>0</v>
       </c>
       <c r="CL12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>0</v>
+        <v>0.003508196526299338</v>
       </c>
       <c r="CO12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.03820578791766271</v>
+        <v>-0.003662989812347138</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.06755547685287458</v>
+        <v>-0.02252779228620241</v>
       </c>
       <c r="CS12" t="n">
         <v>-0</v>
       </c>
       <c r="CT12" t="n">
-        <v>-0.01718761146525069</v>
+        <v>-0</v>
       </c>
       <c r="CU12" t="n">
         <v>0</v>
       </c>
       <c r="CV12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW12" t="n">
-        <v>0</v>
+        <v>-0.03222189101000417</v>
       </c>
       <c r="CX12" t="n">
         <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.01821868474501949</v>
+        <v>0.002035440516834429</v>
       </c>
       <c r="DA12" t="n">
-        <v>-0.06179880568656168</v>
+        <v>0.03141525101889747</v>
       </c>
       <c r="DB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.03587110498958136</v>
+        <v>-0</v>
       </c>
       <c r="DD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>0</v>
+        <v>-0.02464504027803544</v>
       </c>
       <c r="DG12" t="n">
         <v>-0</v>
       </c>
       <c r="DH12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.01971499519760052</v>
+        <v>0.04390092452442424</v>
       </c>
       <c r="DJ12" t="n">
-        <v>-0.01934270601864574</v>
+        <v>-0.000415718521753898</v>
       </c>
       <c r="DK12" t="n">
         <v>0</v>
       </c>
       <c r="DL12" t="n">
-        <v>-0.001702615472597425</v>
+        <v>0</v>
       </c>
       <c r="DM12" t="n">
         <v>0</v>
@@ -7048,7 +7048,7 @@
         <v>-0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0</v>
+        <v>-0.0112438305052271</v>
       </c>
       <c r="DP12" t="n">
         <v>0</v>
@@ -7057,208 +7057,208 @@
         <v>0</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.0406246001482883</v>
+        <v>0.01783998545642576</v>
       </c>
       <c r="DS12" t="n">
-        <v>0.0005023720432719563</v>
+        <v>-1.520451815036939e-05</v>
       </c>
       <c r="DT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU12" t="n">
-        <v>-0.006388755582470963</v>
+        <v>0</v>
       </c>
       <c r="DV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0</v>
+        <v>-0.02362827017215603</v>
       </c>
       <c r="DY12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ12" t="n">
         <v>-0</v>
       </c>
       <c r="EA12" t="n">
-        <v>-0.01039311989815776</v>
+        <v>0.006528698083716571</v>
       </c>
       <c r="EB12" t="n">
-        <v>-0.008724877168021181</v>
+        <v>0.012803167295742</v>
       </c>
       <c r="EC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED12" t="n">
-        <v>-0.02368059047975068</v>
+        <v>0</v>
       </c>
       <c r="EE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG12" t="n">
-        <v>-0</v>
+        <v>-0.03508480927577015</v>
       </c>
       <c r="EH12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ12" t="n">
-        <v>-0.03824124501546963</v>
+        <v>0.01182183706424115</v>
       </c>
       <c r="EK12" t="n">
-        <v>-0.08260686105274533</v>
+        <v>0.03338423356741664</v>
       </c>
       <c r="EL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM12" t="n">
-        <v>-0.00120860073516551</v>
+        <v>-0</v>
       </c>
       <c r="EN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO12" t="n">
         <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>-0</v>
+        <v>-0.0211354864433247</v>
       </c>
       <c r="EQ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.02361698286622516</v>
+        <v>-0.007802926414176778</v>
       </c>
       <c r="ET12" t="n">
-        <v>-0.03639253887701083</v>
+        <v>0.006600795818346028</v>
       </c>
       <c r="EU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV12" t="n">
-        <v>-0.07727995664267605</v>
+        <v>0</v>
       </c>
       <c r="EW12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY12" t="n">
-        <v>-0</v>
+        <v>-0.02995722307648519</v>
       </c>
       <c r="EZ12" t="n">
         <v>0</v>
       </c>
       <c r="FA12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.01443238359747446</v>
+        <v>0.002203834215592546</v>
       </c>
       <c r="FC12" t="n">
-        <v>-0.05640271251910283</v>
+        <v>0.02706645431695889</v>
       </c>
       <c r="FD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.0346943795979256</v>
+        <v>0</v>
       </c>
       <c r="FF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG12" t="n">
         <v>0</v>
       </c>
       <c r="FH12" t="n">
-        <v>-0</v>
+        <v>-0.001231492219864073</v>
       </c>
       <c r="FI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK12" t="n">
-        <v>-0.008126078052029858</v>
+        <v>0.009410707390329997</v>
       </c>
       <c r="FL12" t="n">
-        <v>0.01709486242247886</v>
+        <v>0.02954821090179123</v>
       </c>
       <c r="FM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.03199858251086756</v>
+        <v>-0</v>
       </c>
       <c r="FO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP12" t="n">
         <v>0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>-0</v>
+        <v>-0.001983613360450768</v>
       </c>
       <c r="FR12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.008410064651436223</v>
+        <v>0.01128133942941411</v>
       </c>
       <c r="FU12" t="n">
-        <v>-0.0364331016054663</v>
+        <v>0.01844022066727466</v>
       </c>
       <c r="FV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.03262337042546209</v>
+        <v>-0</v>
       </c>
       <c r="FX12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>-0</v>
+        <v>0.005415781100468099</v>
       </c>
       <c r="GA12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GC12" t="n">
         <v>0</v>
       </c>
       <c r="GD12" t="n">
-        <v>0.03886598963989956</v>
+        <v>-0.02005812897815362</v>
       </c>
       <c r="GE12" t="n">
         <v>-0</v>
       </c>
       <c r="GF12" t="n">
-        <v>-0.01592350901357995</v>
+        <v>-0</v>
       </c>
       <c r="GG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
@@ -7266,25 +7266,25 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.1057968697325088</v>
       </c>
       <c r="C13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.01270218302122335</v>
+        <v>-0.08475484688763088</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2202399298238789</v>
+        <v>-0.02057865388933401</v>
       </c>
       <c r="G13" t="n">
         <v>-0</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.06086091378938027</v>
+        <v>-0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -7293,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.07480445114314249</v>
       </c>
       <c r="L13" t="n">
         <v>-0</v>
@@ -7302,16 +7302,16 @@
         <v>-0</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.02089687684939063</v>
+        <v>-0.06648916123669923</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1859677325154658</v>
+        <v>-0.02522494392780352</v>
       </c>
       <c r="P13" t="n">
         <v>-0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.04165629779189979</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -7320,7 +7320,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.01906094125911958</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -7329,79 +7329,79 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.04104961621792638</v>
+        <v>-0.004191752753759134</v>
       </c>
       <c r="X13" t="n">
-        <v>0.06107555665555862</v>
+        <v>0.01180110368614054</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.009353555150137628</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
         <v>-0</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0</v>
+        <v>0.003272045536479402</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE13" t="n">
         <v>-0</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.03446938140776365</v>
+        <v>0.002587517684227683</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.005341697229176868</v>
+        <v>0.00231735278533981</v>
       </c>
       <c r="AH13" t="n">
         <v>-0</v>
       </c>
       <c r="AI13" t="n">
-        <v>-0.00731294414450368</v>
+        <v>-0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0</v>
+        <v>0.01806452962940453</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN13" t="n">
         <v>-0</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.01276934871020765</v>
+        <v>-0.01243386786388016</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.03206610742061666</v>
+        <v>-0.01228520317475038</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.01789343871113165</v>
+        <v>0</v>
       </c>
       <c r="AS13" t="n">
         <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU13" t="n">
-        <v>0</v>
+        <v>0.09027327901085329</v>
       </c>
       <c r="AV13" t="n">
         <v>-0</v>
@@ -7410,43 +7410,43 @@
         <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>-0.06212222181041524</v>
+        <v>-0.05113521881706509</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.131225130709901</v>
+        <v>-0.01129680401635391</v>
       </c>
       <c r="AZ13" t="n">
         <v>0</v>
       </c>
       <c r="BA13" t="n">
-        <v>-0.03725257597401251</v>
+        <v>-0</v>
       </c>
       <c r="BB13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC13" t="n">
         <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0</v>
+        <v>0.01919559861795131</v>
       </c>
       <c r="BE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-0.01536783304553509</v>
+        <v>-0.04969339796314527</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.05056234715642035</v>
+        <v>-0.01919363218217901</v>
       </c>
       <c r="BI13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ13" t="n">
-        <v>-0.05058862881006787</v>
+        <v>0</v>
       </c>
       <c r="BK13" t="n">
         <v>0</v>
@@ -7455,7 +7455,7 @@
         <v>-0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0</v>
+        <v>0.02558812258889233</v>
       </c>
       <c r="BN13" t="n">
         <v>0</v>
@@ -7464,25 +7464,25 @@
         <v>0</v>
       </c>
       <c r="BP13" t="n">
-        <v>-0.02198164307885453</v>
+        <v>0.01396521779819443</v>
       </c>
       <c r="BQ13" t="n">
-        <v>-0.01464103772702111</v>
+        <v>0.0217762928690108</v>
       </c>
       <c r="BR13" t="n">
         <v>-0</v>
       </c>
       <c r="BS13" t="n">
-        <v>-0.03653585608892636</v>
+        <v>-0</v>
       </c>
       <c r="BT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
       </c>
       <c r="BV13" t="n">
-        <v>0</v>
+        <v>0.04866710589721925</v>
       </c>
       <c r="BW13" t="n">
         <v>0</v>
@@ -7491,124 +7491,124 @@
         <v>0</v>
       </c>
       <c r="BY13" t="n">
-        <v>-0.0238061426857468</v>
+        <v>-0.02364773077474541</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.082301163121567</v>
+        <v>0.001996118077983738</v>
       </c>
       <c r="CA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB13" t="n">
-        <v>-0.01823656552295962</v>
+        <v>-0</v>
       </c>
       <c r="CC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE13" t="n">
-        <v>-0</v>
+        <v>-0.01760819412881975</v>
       </c>
       <c r="CF13" t="n">
         <v>0</v>
       </c>
       <c r="CG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.00804952957176246</v>
+        <v>0.01222752609177812</v>
       </c>
       <c r="CI13" t="n">
-        <v>-0.04054508134578586</v>
+        <v>0.007245793073079688</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.01425431493578011</v>
+        <v>-0</v>
       </c>
       <c r="CL13" t="n">
         <v>-0</v>
       </c>
       <c r="CM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>-0</v>
+        <v>-0.0002141957200115257</v>
       </c>
       <c r="CO13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.05480819233692449</v>
+        <v>-0.003925178938257989</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.02768981741393637</v>
+        <v>-0.003646202967627068</v>
       </c>
       <c r="CS13" t="n">
         <v>-0</v>
       </c>
       <c r="CT13" t="n">
-        <v>-0.01545344970290194</v>
+        <v>-0</v>
       </c>
       <c r="CU13" t="n">
         <v>0</v>
       </c>
       <c r="CV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW13" t="n">
-        <v>0</v>
+        <v>-0.01094687758772159</v>
       </c>
       <c r="CX13" t="n">
         <v>-0</v>
       </c>
       <c r="CY13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.006407253231333155</v>
+        <v>0.009415954308945634</v>
       </c>
       <c r="DA13" t="n">
-        <v>-0.03756901127083116</v>
+        <v>0.01312032000253682</v>
       </c>
       <c r="DB13" t="n">
         <v>0</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.02377815333464796</v>
+        <v>0</v>
       </c>
       <c r="DD13" t="n">
         <v>0</v>
       </c>
       <c r="DE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>-0</v>
+        <v>-0.01631896342086048</v>
       </c>
       <c r="DG13" t="n">
         <v>0</v>
       </c>
       <c r="DH13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.0005715455195514908</v>
+        <v>0.01846983431862562</v>
       </c>
       <c r="DJ13" t="n">
-        <v>-0.0149318991773868</v>
+        <v>-0.003693580578417738</v>
       </c>
       <c r="DK13" t="n">
         <v>0</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.001081552629769225</v>
+        <v>-0</v>
       </c>
       <c r="DM13" t="n">
         <v>0</v>
@@ -7617,88 +7617,88 @@
         <v>-0</v>
       </c>
       <c r="DO13" t="n">
-        <v>0</v>
+        <v>-0.008041331963759196</v>
       </c>
       <c r="DP13" t="n">
         <v>0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.02531864814078748</v>
+        <v>0.01979462192430372</v>
       </c>
       <c r="DS13" t="n">
-        <v>-0.001939064113356626</v>
+        <v>-0.01366813514594768</v>
       </c>
       <c r="DT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU13" t="n">
-        <v>-0.008522624827841619</v>
+        <v>0</v>
       </c>
       <c r="DV13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX13" t="n">
-        <v>-0</v>
+        <v>-0.01512565863019831</v>
       </c>
       <c r="DY13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ13" t="n">
         <v>-0</v>
       </c>
       <c r="EA13" t="n">
-        <v>-0.001419407276779632</v>
+        <v>0.01340477666797229</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.004813729188034274</v>
+        <v>0.001415198527650156</v>
       </c>
       <c r="EC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED13" t="n">
-        <v>-0.004290232478310352</v>
+        <v>0</v>
       </c>
       <c r="EE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG13" t="n">
-        <v>-0</v>
+        <v>-0.01793955233745228</v>
       </c>
       <c r="EH13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI13" t="n">
         <v>0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>-0.03440101140922604</v>
+        <v>0.01082317761302391</v>
       </c>
       <c r="EK13" t="n">
-        <v>-0.03737089104547726</v>
+        <v>0.007110880765519101</v>
       </c>
       <c r="EL13" t="n">
         <v>-0</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.004693707100860302</v>
+        <v>-0</v>
       </c>
       <c r="EN13" t="n">
         <v>-0</v>
       </c>
       <c r="EO13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>-0</v>
+        <v>0.0003538967037369907</v>
       </c>
       <c r="EQ13" t="n">
         <v>0</v>
@@ -7707,127 +7707,127 @@
         <v>0</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.0225453170541154</v>
+        <v>0.008469124541862586</v>
       </c>
       <c r="ET13" t="n">
-        <v>-0.01495464787480713</v>
+        <v>-0.001591717708135629</v>
       </c>
       <c r="EU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.01878731625772719</v>
+        <v>0</v>
       </c>
       <c r="EW13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY13" t="n">
-        <v>-0</v>
+        <v>-0.01113163272902852</v>
       </c>
       <c r="EZ13" t="n">
         <v>0</v>
       </c>
       <c r="FA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.003284024285009472</v>
+        <v>0.01147713504073795</v>
       </c>
       <c r="FC13" t="n">
-        <v>-0.03898771935764456</v>
+        <v>0.0145324386488448</v>
       </c>
       <c r="FD13" t="n">
         <v>0</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.02313621191522349</v>
+        <v>-0</v>
       </c>
       <c r="FF13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG13" t="n">
         <v>0</v>
       </c>
       <c r="FH13" t="n">
-        <v>-0</v>
+        <v>-0.002715196563887185</v>
       </c>
       <c r="FI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.009366249596308242</v>
+        <v>0.01351145408553161</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.04289559685733395</v>
+        <v>0.01047446064001669</v>
       </c>
       <c r="FM13" t="n">
         <v>0</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.02838933163769459</v>
+        <v>-0</v>
       </c>
       <c r="FO13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP13" t="n">
         <v>0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>-0</v>
+        <v>-0.002701188916824334</v>
       </c>
       <c r="FR13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.01181650575608415</v>
+        <v>0.008326859423344778</v>
       </c>
       <c r="FU13" t="n">
-        <v>-0.02226209952420131</v>
+        <v>0.0120175413229906</v>
       </c>
       <c r="FV13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW13" t="n">
-        <v>0.02151283009736115</v>
+        <v>-0</v>
       </c>
       <c r="FX13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>-0</v>
+        <v>-0.0005504205876127753</v>
       </c>
       <c r="GA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB13" t="n">
         <v>-0</v>
       </c>
       <c r="GC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.05312738085893519</v>
+        <v>-0.01311505274425613</v>
       </c>
       <c r="GE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF13" t="n">
-        <v>-0.001123073197148161</v>
+        <v>-0</v>
       </c>
       <c r="GG13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -7835,73 +7835,73 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.1640080092294201</v>
+        <v>0.4153572051450508</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-0</v>
+        <v>-0.1527524371230786</v>
       </c>
       <c r="E14" t="n">
-        <v>0.05402712755723647</v>
+        <v>-0.05337349798471756</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4426168561637444</v>
+        <v>-0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.1798748037982858</v>
+        <v>0.3239443995061827</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>-0</v>
+        <v>-0.1895680220001493</v>
       </c>
       <c r="N14" t="n">
-        <v>0.02529482821195926</v>
+        <v>-0.06892823910276677</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4476971154813156</v>
+        <v>-0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0.008856258125150011</v>
+        <v>0.102082386197136</v>
       </c>
       <c r="U14" t="n">
         <v>-0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>0.01067781167138243</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.02309851316158408</v>
+        <v>0.09840651620137804</v>
       </c>
       <c r="X14" t="n">
-        <v>0.1133505457911825</v>
+        <v>-0</v>
       </c>
       <c r="Y14" t="n">
         <v>-0</v>
@@ -7910,82 +7910,82 @@
         <v>-0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB14" t="n">
         <v>-0</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.02291593913526896</v>
+        <v>0.1042984366478261</v>
       </c>
       <c r="AD14" t="n">
         <v>-0</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0</v>
+        <v>-0.008280249905984419</v>
       </c>
       <c r="AF14" t="n">
-        <v>-0.07998905518044927</v>
+        <v>0.007868876847546148</v>
       </c>
       <c r="AG14" t="n">
-        <v>-0.07591466510355863</v>
+        <v>-0</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK14" t="n">
         <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>-0.04125307593000817</v>
+        <v>-0.01413306067264882</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>-0.06963297121984609</v>
       </c>
       <c r="AO14" t="n">
-        <v>-0.0409909542271615</v>
+        <v>-0.09327890535983155</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.105668166789883</v>
+        <v>0</v>
       </c>
       <c r="AQ14" t="n">
         <v>-0</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU14" t="n">
-        <v>-0.1887639094721299</v>
+        <v>0.3350417824791784</v>
       </c>
       <c r="AV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW14" t="n">
-        <v>0</v>
+        <v>-0.0582899494006054</v>
       </c>
       <c r="AX14" t="n">
-        <v>-0.07438590928188842</v>
+        <v>0.1352134909149114</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.1468082877406041</v>
+        <v>-0</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA14" t="n">
         <v>-0</v>
@@ -7997,19 +7997,19 @@
         <v>-0</v>
       </c>
       <c r="BD14" t="n">
-        <v>-0.0484644571502059</v>
+        <v>0.03028057937233576</v>
       </c>
       <c r="BE14" t="n">
         <v>0</v>
       </c>
       <c r="BF14" t="n">
-        <v>-0</v>
+        <v>-0.06014711045112877</v>
       </c>
       <c r="BG14" t="n">
-        <v>-0.04593102020728893</v>
+        <v>-0.1089048352468886</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.1678656697359452</v>
+        <v>0</v>
       </c>
       <c r="BI14" t="n">
         <v>0</v>
@@ -8018,79 +8018,79 @@
         <v>0</v>
       </c>
       <c r="BK14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL14" t="n">
         <v>-0</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.02094961875661749</v>
+        <v>0.05861349550282345</v>
       </c>
       <c r="BN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO14" t="n">
-        <v>-0</v>
+        <v>0.0575667306426512</v>
       </c>
       <c r="BP14" t="n">
-        <v>-0.06630104163964463</v>
+        <v>0.1982779608751278</v>
       </c>
       <c r="BQ14" t="n">
-        <v>-0.06997072574134648</v>
+        <v>-0</v>
       </c>
       <c r="BR14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV14" t="n">
-        <v>-0.0658717682212942</v>
+        <v>0.1635072823828878</v>
       </c>
       <c r="BW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX14" t="n">
-        <v>0</v>
+        <v>0.01661427909170024</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.01966348506022247</v>
+        <v>0.09747195118235644</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0.2039625298857525</v>
+        <v>-0</v>
       </c>
       <c r="CA14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB14" t="n">
         <v>-0</v>
       </c>
       <c r="CC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>0.05611989552413827</v>
+        <v>-0.09299382153137263</v>
       </c>
       <c r="CF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG14" t="n">
-        <v>0</v>
+        <v>0.02466341910762236</v>
       </c>
       <c r="CH14" t="n">
-        <v>-0.008532762824411807</v>
+        <v>-0.01222205628045068</v>
       </c>
       <c r="CI14" t="n">
-        <v>-0.06769041145433907</v>
+        <v>0</v>
       </c>
       <c r="CJ14" t="n">
         <v>-0</v>
@@ -8105,19 +8105,19 @@
         <v>0</v>
       </c>
       <c r="CN14" t="n">
-        <v>0.02487983115471043</v>
+        <v>-0.03087720610851103</v>
       </c>
       <c r="CO14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP14" t="n">
-        <v>-0</v>
+        <v>-0.07622409350281764</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.06313692421097736</v>
+        <v>-0.136309073103893</v>
       </c>
       <c r="CR14" t="n">
-        <v>0.05056360608046226</v>
+        <v>0</v>
       </c>
       <c r="CS14" t="n">
         <v>-0</v>
@@ -8129,52 +8129,52 @@
         <v>0</v>
       </c>
       <c r="CV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW14" t="n">
-        <v>0.04797732039467587</v>
+        <v>-0.08923844109489036</v>
       </c>
       <c r="CX14" t="n">
         <v>-0</v>
       </c>
       <c r="CY14" t="n">
-        <v>0</v>
+        <v>0.04471339974487957</v>
       </c>
       <c r="CZ14" t="n">
-        <v>-0.00281634926878357</v>
+        <v>-0.004810092314039812</v>
       </c>
       <c r="DA14" t="n">
-        <v>-0.07142776916545206</v>
+        <v>-0</v>
       </c>
       <c r="DB14" t="n">
         <v>0</v>
       </c>
       <c r="DC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD14" t="n">
         <v>0</v>
       </c>
       <c r="DE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>0.02518757423042676</v>
+        <v>-0.008880697775690335</v>
       </c>
       <c r="DG14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH14" t="n">
-        <v>-0</v>
+        <v>0.003708755479479001</v>
       </c>
       <c r="DI14" t="n">
-        <v>0.02785435671587684</v>
+        <v>-0.002878872980683219</v>
       </c>
       <c r="DJ14" t="n">
-        <v>0.04386969548999159</v>
+        <v>-0</v>
       </c>
       <c r="DK14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL14" t="n">
         <v>0</v>
@@ -8186,46 +8186,46 @@
         <v>-0</v>
       </c>
       <c r="DO14" t="n">
-        <v>-0.0143655740351343</v>
+        <v>-0.01040306623990542</v>
       </c>
       <c r="DP14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ14" t="n">
-        <v>0</v>
+        <v>-0.1684177412083869</v>
       </c>
       <c r="DR14" t="n">
-        <v>0.02475429922308684</v>
+        <v>-0.03684732392055023</v>
       </c>
       <c r="DS14" t="n">
-        <v>0.07922910064098788</v>
+        <v>0</v>
       </c>
       <c r="DT14" t="n">
         <v>-0</v>
       </c>
       <c r="DU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV14" t="n">
         <v>-0</v>
       </c>
       <c r="DW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX14" t="n">
-        <v>0.0399671759891168</v>
+        <v>-0.06528869013948503</v>
       </c>
       <c r="DY14" t="n">
         <v>0</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0</v>
+        <v>0.01647540544408062</v>
       </c>
       <c r="EA14" t="n">
-        <v>-0.03530637659791159</v>
+        <v>0.01696301540797479</v>
       </c>
       <c r="EB14" t="n">
-        <v>-0.03606067698485011</v>
+        <v>0</v>
       </c>
       <c r="EC14" t="n">
         <v>0</v>
@@ -8237,25 +8237,25 @@
         <v>0</v>
       </c>
       <c r="EF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG14" t="n">
-        <v>0.06206102607718177</v>
+        <v>-0.1170385087711713</v>
       </c>
       <c r="EH14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI14" t="n">
-        <v>-0</v>
+        <v>0.08252476119456385</v>
       </c>
       <c r="EJ14" t="n">
-        <v>-0.110841360299061</v>
+        <v>0.07755929381076397</v>
       </c>
       <c r="EK14" t="n">
-        <v>-0.08936259560748382</v>
+        <v>0</v>
       </c>
       <c r="EL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM14" t="n">
         <v>-0</v>
@@ -8264,76 +8264,76 @@
         <v>-0</v>
       </c>
       <c r="EO14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>0.01556790536809672</v>
+        <v>-0.08683023244737859</v>
       </c>
       <c r="EQ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER14" t="n">
-        <v>-0</v>
+        <v>0.06773080070714632</v>
       </c>
       <c r="ES14" t="n">
-        <v>0.009092581525501539</v>
+        <v>0.01989386463468211</v>
       </c>
       <c r="ET14" t="n">
-        <v>-0.1090415743330211</v>
+        <v>0</v>
       </c>
       <c r="EU14" t="n">
         <v>-0</v>
       </c>
       <c r="EV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW14" t="n">
         <v>-0</v>
       </c>
       <c r="EX14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY14" t="n">
-        <v>0.05490889285897006</v>
+        <v>-0.08395258427681976</v>
       </c>
       <c r="EZ14" t="n">
         <v>0</v>
       </c>
       <c r="FA14" t="n">
-        <v>-0</v>
+        <v>0.02768983226285621</v>
       </c>
       <c r="FB14" t="n">
-        <v>-0.008028330778484</v>
+        <v>-0.004075162106430106</v>
       </c>
       <c r="FC14" t="n">
-        <v>-0.07874185538429103</v>
+        <v>0</v>
       </c>
       <c r="FD14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF14" t="n">
         <v>-0</v>
       </c>
       <c r="FG14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH14" t="n">
-        <v>-0.0239996108211409</v>
+        <v>-0.02981761782796473</v>
       </c>
       <c r="FI14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ14" t="n">
-        <v>0</v>
+        <v>-0.07811525575997685</v>
       </c>
       <c r="FK14" t="n">
-        <v>-0.09296269890617494</v>
+        <v>0.03957293323877484</v>
       </c>
       <c r="FL14" t="n">
-        <v>0.04703578092638429</v>
+        <v>-0</v>
       </c>
       <c r="FM14" t="n">
         <v>0</v>
@@ -8342,58 +8342,58 @@
         <v>0</v>
       </c>
       <c r="FO14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP14" t="n">
         <v>0</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0.04569862860283424</v>
+        <v>-0.006028435789170863</v>
       </c>
       <c r="FR14" t="n">
         <v>-0</v>
       </c>
       <c r="FS14" t="n">
-        <v>0</v>
+        <v>0.1084392961027306</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.02740672817715338</v>
+        <v>-0.005669346021173258</v>
       </c>
       <c r="FU14" t="n">
-        <v>-0.03259158302164526</v>
+        <v>-0</v>
       </c>
       <c r="FV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX14" t="n">
         <v>0</v>
       </c>
       <c r="FY14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ14" t="n">
-        <v>-0.03531849743897993</v>
+        <v>0.01330668224531322</v>
       </c>
       <c r="GA14" t="n">
         <v>-0</v>
       </c>
       <c r="GB14" t="n">
-        <v>0</v>
+        <v>-0.0646767419494222</v>
       </c>
       <c r="GC14" t="n">
         <v>-0</v>
       </c>
       <c r="GD14" t="n">
-        <v>0.09193603959836691</v>
+        <v>-0</v>
       </c>
       <c r="GE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG14" t="n">
         <v>-0</v>
@@ -8404,7 +8404,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -8416,7 +8416,7 @@
         <v>-0</v>
       </c>
       <c r="F15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -8443,7 +8443,7 @@
         <v>-0</v>
       </c>
       <c r="O15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8458,7 +8458,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>-0</v>
       </c>
       <c r="X15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -8485,7 +8485,7 @@
         <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -8497,7 +8497,7 @@
         <v>-0</v>
       </c>
       <c r="AG15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
         <v>0</v>
@@ -8512,7 +8512,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
@@ -8524,7 +8524,7 @@
         <v>-0</v>
       </c>
       <c r="AP15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ15" t="n">
         <v>0</v>
@@ -8539,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV15" t="n">
         <v>0</v>
@@ -8551,7 +8551,7 @@
         <v>-0</v>
       </c>
       <c r="AY15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ15" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="BD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE15" t="n">
         <v>0</v>
@@ -8578,7 +8578,7 @@
         <v>-0</v>
       </c>
       <c r="BH15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI15" t="n">
         <v>0</v>
@@ -8593,7 +8593,7 @@
         <v>0</v>
       </c>
       <c r="BM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN15" t="n">
         <v>0</v>
@@ -8605,7 +8605,7 @@
         <v>-0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR15" t="n">
         <v>0</v>
@@ -8620,7 +8620,7 @@
         <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW15" t="n">
         <v>0</v>
@@ -8632,7 +8632,7 @@
         <v>-0</v>
       </c>
       <c r="BZ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA15" t="n">
         <v>0</v>
@@ -8647,7 +8647,7 @@
         <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF15" t="n">
         <v>0</v>
@@ -8659,7 +8659,7 @@
         <v>-0</v>
       </c>
       <c r="CI15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ15" t="n">
         <v>0</v>
@@ -8674,7 +8674,7 @@
         <v>0</v>
       </c>
       <c r="CN15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO15" t="n">
         <v>0</v>
@@ -8686,7 +8686,7 @@
         <v>-0</v>
       </c>
       <c r="CR15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS15" t="n">
         <v>0</v>
@@ -8728,7 +8728,7 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG15" t="n">
         <v>0</v>
@@ -8740,7 +8740,7 @@
         <v>-0</v>
       </c>
       <c r="DJ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK15" t="n">
         <v>0</v>
@@ -8755,7 +8755,7 @@
         <v>0</v>
       </c>
       <c r="DO15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP15" t="n">
         <v>0</v>
@@ -8767,7 +8767,7 @@
         <v>-0</v>
       </c>
       <c r="DS15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT15" t="n">
         <v>0</v>
@@ -8782,7 +8782,7 @@
         <v>0</v>
       </c>
       <c r="DX15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY15" t="n">
         <v>0</v>
@@ -8794,7 +8794,7 @@
         <v>-0</v>
       </c>
       <c r="EB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC15" t="n">
         <v>0</v>
@@ -8809,7 +8809,7 @@
         <v>0</v>
       </c>
       <c r="EG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH15" t="n">
         <v>0</v>
@@ -8821,7 +8821,7 @@
         <v>-0</v>
       </c>
       <c r="EK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL15" t="n">
         <v>0</v>
@@ -8836,7 +8836,7 @@
         <v>0</v>
       </c>
       <c r="EP15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ15" t="n">
         <v>0</v>
@@ -8848,7 +8848,7 @@
         <v>-0</v>
       </c>
       <c r="ET15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU15" t="n">
         <v>0</v>
@@ -8863,7 +8863,7 @@
         <v>0</v>
       </c>
       <c r="EY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ15" t="n">
         <v>0</v>
@@ -8875,7 +8875,7 @@
         <v>-0</v>
       </c>
       <c r="FC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD15" t="n">
         <v>0</v>
@@ -8917,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR15" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>-0</v>
       </c>
       <c r="FU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV15" t="n">
         <v>0</v>
@@ -8973,52 +8973,52 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.1955844602962666</v>
       </c>
       <c r="C16" t="n">
         <v>-0</v>
       </c>
       <c r="D16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.04275229098101416</v>
+        <v>-0.0573237275039872</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3746715100960667</v>
+        <v>-0.1176689356884328</v>
       </c>
       <c r="G16" t="n">
         <v>-0</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.143888689889522</v>
+        <v>-0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.1725380383146246</v>
       </c>
       <c r="L16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.0551944088581066</v>
+        <v>-0.03145811373663959</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3286217085658872</v>
+        <v>-0.1173016771310044</v>
       </c>
       <c r="P16" t="n">
         <v>-0</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.1050995015128057</v>
+        <v>-0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9027,52 +9027,52 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-0</v>
+        <v>0.02088460486761182</v>
       </c>
       <c r="U16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.0387905188015592</v>
+        <v>-0.01640005628446425</v>
       </c>
       <c r="X16" t="n">
-        <v>0.08323744888750838</v>
+        <v>-0.001993725783814916</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.007880083297743678</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
         <v>-0</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0</v>
+        <v>0.001356453217562624</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE16" t="n">
         <v>-0</v>
       </c>
       <c r="AF16" t="n">
-        <v>-0.08801760652479794</v>
+        <v>0.01935586411750067</v>
       </c>
       <c r="AG16" t="n">
-        <v>-0.03671929416807177</v>
+        <v>-0.0002807767392033485</v>
       </c>
       <c r="AH16" t="n">
         <v>-0</v>
       </c>
       <c r="AI16" t="n">
-        <v>-0.03592301179752681</v>
+        <v>-0</v>
       </c>
       <c r="AJ16" t="n">
         <v>0</v>
@@ -9081,7 +9081,7 @@
         <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>-0</v>
+        <v>0.02453327275050268</v>
       </c>
       <c r="AM16" t="n">
         <v>0</v>
@@ -9090,106 +9090,106 @@
         <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.02316322357300079</v>
+        <v>0.004011956251488029</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.05055865759470098</v>
+        <v>-0.03186811951592929</v>
       </c>
       <c r="AQ16" t="n">
         <v>-0</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.009225444561316621</v>
+        <v>-0</v>
       </c>
       <c r="AS16" t="n">
         <v>0</v>
       </c>
       <c r="AT16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU16" t="n">
-        <v>0</v>
+        <v>0.1182207341344241</v>
       </c>
       <c r="AV16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW16" t="n">
         <v>0</v>
       </c>
       <c r="AX16" t="n">
-        <v>-0.08418716435159276</v>
+        <v>-0.01706000986491803</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.1469522636858424</v>
+        <v>-0.0622545558779858</v>
       </c>
       <c r="AZ16" t="n">
         <v>-0</v>
       </c>
       <c r="BA16" t="n">
-        <v>-0.04811562335898001</v>
+        <v>-0</v>
       </c>
       <c r="BB16" t="n">
         <v>0</v>
       </c>
       <c r="BC16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD16" t="n">
-        <v>-0</v>
+        <v>0.03487884350627186</v>
       </c>
       <c r="BE16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG16" t="n">
-        <v>-0.03672394965961897</v>
+        <v>-0.04686936049584645</v>
       </c>
       <c r="BH16" t="n">
-        <v>0.07476686181106251</v>
+        <v>-0.04431923995765664</v>
       </c>
       <c r="BI16" t="n">
         <v>-0</v>
       </c>
       <c r="BJ16" t="n">
-        <v>-0.1098920171471616</v>
+        <v>0</v>
       </c>
       <c r="BK16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL16" t="n">
         <v>-0</v>
       </c>
       <c r="BM16" t="n">
-        <v>-0</v>
+        <v>0.03312529975264238</v>
       </c>
       <c r="BN16" t="n">
         <v>0</v>
       </c>
       <c r="BO16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP16" t="n">
-        <v>-0.02602749634544449</v>
+        <v>0.003557253501918739</v>
       </c>
       <c r="BQ16" t="n">
-        <v>-0.02790475565309935</v>
+        <v>0.01915244502906337</v>
       </c>
       <c r="BR16" t="n">
         <v>-0</v>
       </c>
       <c r="BS16" t="n">
-        <v>-0.02787494074594424</v>
+        <v>0</v>
       </c>
       <c r="BT16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU16" t="n">
         <v>0</v>
       </c>
       <c r="BV16" t="n">
-        <v>0</v>
+        <v>0.0602171278281084</v>
       </c>
       <c r="BW16" t="n">
         <v>0</v>
@@ -9198,16 +9198,16 @@
         <v>0</v>
       </c>
       <c r="BY16" t="n">
-        <v>-0.03629719851055058</v>
+        <v>-0.01864234103097717</v>
       </c>
       <c r="BZ16" t="n">
-        <v>0.1187571735711505</v>
+        <v>-0.04035080286368642</v>
       </c>
       <c r="CA16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB16" t="n">
-        <v>-0.04596192708862405</v>
+        <v>-0</v>
       </c>
       <c r="CC16" t="n">
         <v>0</v>
@@ -9216,106 +9216,106 @@
         <v>-0</v>
       </c>
       <c r="CE16" t="n">
-        <v>-0</v>
+        <v>-0.03091895479689228</v>
       </c>
       <c r="CF16" t="n">
         <v>0</v>
       </c>
       <c r="CG16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH16" t="n">
-        <v>0.01154071832204111</v>
+        <v>-0.002999741711921904</v>
       </c>
       <c r="CI16" t="n">
-        <v>-0.05744295988924249</v>
+        <v>0.02745837148458497</v>
       </c>
       <c r="CJ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK16" t="n">
-        <v>0.02724841065363137</v>
+        <v>0</v>
       </c>
       <c r="CL16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN16" t="n">
-        <v>0</v>
+        <v>0.00736323709553628</v>
       </c>
       <c r="CO16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP16" t="n">
         <v>0</v>
       </c>
       <c r="CQ16" t="n">
-        <v>0.08145164979016638</v>
+        <v>-0.01337612968087371</v>
       </c>
       <c r="CR16" t="n">
-        <v>0.07500070168640031</v>
+        <v>-0.008538606990017008</v>
       </c>
       <c r="CS16" t="n">
         <v>-0</v>
       </c>
       <c r="CT16" t="n">
-        <v>-0.01342692552323458</v>
+        <v>-0</v>
       </c>
       <c r="CU16" t="n">
         <v>0</v>
       </c>
       <c r="CV16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW16" t="n">
-        <v>0</v>
+        <v>-0.02406000500622384</v>
       </c>
       <c r="CX16" t="n">
         <v>-0</v>
       </c>
       <c r="CY16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>0.0141049860178376</v>
+        <v>-0.006775498304454394</v>
       </c>
       <c r="DA16" t="n">
-        <v>-0.0539285240900138</v>
+        <v>0.03280272960414036</v>
       </c>
       <c r="DB16" t="n">
         <v>0</v>
       </c>
       <c r="DC16" t="n">
-        <v>0.0434674051993164</v>
+        <v>-0</v>
       </c>
       <c r="DD16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>0</v>
+        <v>-0.01228768337052847</v>
       </c>
       <c r="DG16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI16" t="n">
-        <v>0.00876027998631647</v>
+        <v>0.03094020918752625</v>
       </c>
       <c r="DJ16" t="n">
-        <v>-0.0003083616151277164</v>
+        <v>0.0001226839614979743</v>
       </c>
       <c r="DK16" t="n">
         <v>0</v>
       </c>
       <c r="DL16" t="n">
-        <v>0.004198282310600853</v>
+        <v>0</v>
       </c>
       <c r="DM16" t="n">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>-0</v>
       </c>
       <c r="DO16" t="n">
-        <v>0</v>
+        <v>-0.006795211005618329</v>
       </c>
       <c r="DP16" t="n">
         <v>0</v>
@@ -9333,52 +9333,52 @@
         <v>0</v>
       </c>
       <c r="DR16" t="n">
-        <v>0.02427681142372617</v>
+        <v>0.0307923293361752</v>
       </c>
       <c r="DS16" t="n">
-        <v>0.007793447698999007</v>
+        <v>0.0004612995519719142</v>
       </c>
       <c r="DT16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU16" t="n">
-        <v>0.01275423133064132</v>
+        <v>0</v>
       </c>
       <c r="DV16" t="n">
         <v>0</v>
       </c>
       <c r="DW16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX16" t="n">
-        <v>-0</v>
+        <v>-0.01377460250652974</v>
       </c>
       <c r="DY16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ16" t="n">
         <v>-0</v>
       </c>
       <c r="EA16" t="n">
-        <v>-0.03043110351781381</v>
+        <v>-0.004741634155976387</v>
       </c>
       <c r="EB16" t="n">
-        <v>0.01290470907738919</v>
+        <v>0.01780713693393893</v>
       </c>
       <c r="EC16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED16" t="n">
-        <v>-4.756968876024639e-05</v>
+        <v>0</v>
       </c>
       <c r="EE16" t="n">
         <v>-0</v>
       </c>
       <c r="EF16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG16" t="n">
-        <v>-0</v>
+        <v>-0.03293124787782795</v>
       </c>
       <c r="EH16" t="n">
         <v>0</v>
@@ -9387,133 +9387,133 @@
         <v>0</v>
       </c>
       <c r="EJ16" t="n">
-        <v>-0.03470658868181063</v>
+        <v>0.00304971769285448</v>
       </c>
       <c r="EK16" t="n">
-        <v>-0.05205255521581663</v>
+        <v>0.02741264553479034</v>
       </c>
       <c r="EL16" t="n">
         <v>-0</v>
       </c>
       <c r="EM16" t="n">
-        <v>0.01692434938383803</v>
+        <v>-0</v>
       </c>
       <c r="EN16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO16" t="n">
         <v>0</v>
       </c>
       <c r="EP16" t="n">
-        <v>-0</v>
+        <v>-0.01162491910939762</v>
       </c>
       <c r="EQ16" t="n">
         <v>0</v>
       </c>
       <c r="ER16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES16" t="n">
-        <v>0.06387468826513699</v>
+        <v>-0.01449646432241165</v>
       </c>
       <c r="ET16" t="n">
-        <v>-0.04815516040688596</v>
+        <v>0.01451631036138486</v>
       </c>
       <c r="EU16" t="n">
         <v>-0</v>
       </c>
       <c r="EV16" t="n">
-        <v>0.02563270981368841</v>
+        <v>0</v>
       </c>
       <c r="EW16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY16" t="n">
-        <v>-0</v>
+        <v>-0.02235811953906987</v>
       </c>
       <c r="EZ16" t="n">
         <v>0</v>
       </c>
       <c r="FA16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB16" t="n">
-        <v>0.01352435368442273</v>
+        <v>-0.004649318084795771</v>
       </c>
       <c r="FC16" t="n">
-        <v>-0.0549012165936325</v>
+        <v>0.03077857441642638</v>
       </c>
       <c r="FD16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE16" t="n">
-        <v>0.04177501431705519</v>
+        <v>0</v>
       </c>
       <c r="FF16" t="n">
         <v>0</v>
       </c>
       <c r="FG16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH16" t="n">
-        <v>-0</v>
+        <v>0.002722592043912259</v>
       </c>
       <c r="FI16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK16" t="n">
-        <v>-0.01656509008031161</v>
+        <v>0.008630068950705883</v>
       </c>
       <c r="FL16" t="n">
-        <v>0.05786463429526632</v>
+        <v>-0.02239772934934034</v>
       </c>
       <c r="FM16" t="n">
         <v>0</v>
       </c>
       <c r="FN16" t="n">
-        <v>-0.05052259090484992</v>
+        <v>-0</v>
       </c>
       <c r="FO16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP16" t="n">
         <v>0</v>
       </c>
       <c r="FQ16" t="n">
-        <v>-0</v>
+        <v>-0.003555128235483988</v>
       </c>
       <c r="FR16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT16" t="n">
-        <v>0.01340676034234507</v>
+        <v>0.003938254028870664</v>
       </c>
       <c r="FU16" t="n">
-        <v>-0.05632438617085331</v>
+        <v>0.03465978461921009</v>
       </c>
       <c r="FV16" t="n">
         <v>-0</v>
       </c>
       <c r="FW16" t="n">
-        <v>0.06926449070065499</v>
+        <v>-0</v>
       </c>
       <c r="FX16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ16" t="n">
-        <v>-0</v>
+        <v>0.01840337407645683</v>
       </c>
       <c r="GA16" t="n">
         <v>-0</v>
@@ -9522,16 +9522,16 @@
         <v>-0</v>
       </c>
       <c r="GC16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD16" t="n">
-        <v>0.07486491121056346</v>
+        <v>-0.01639096137968626</v>
       </c>
       <c r="GE16" t="n">
         <v>-0</v>
       </c>
       <c r="GF16" t="n">
-        <v>-0.009767501674757751</v>
+        <v>-0</v>
       </c>
       <c r="GG16" t="n">
         <v>-0</v>
